--- a/Recommended-trades.xlsx
+++ b/Recommended-trades.xlsx
@@ -1939,13 +1939,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>139.44</v>
+        <v>147.48</v>
       </c>
       <c r="C2" s="2">
-        <v>40856491983</v>
+        <v>43219793284</v>
       </c>
       <c r="D2" s="3">
-        <v>71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1953,13 +1953,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>13.67</v>
+        <v>13.96</v>
       </c>
       <c r="C3" s="2">
-        <v>8933899319</v>
+        <v>9140405151</v>
       </c>
       <c r="D3" s="3">
-        <v>724</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1967,13 +1967,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>63.52</v>
+        <v>81.77</v>
       </c>
       <c r="C4" s="2">
-        <v>3779566405</v>
+        <v>4869488704</v>
       </c>
       <c r="D4" s="3">
-        <v>155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1981,13 +1981,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="2">
-        <v>186.79</v>
+        <v>172.62</v>
       </c>
       <c r="C5" s="2">
-        <v>2905098546080</v>
+        <v>2665577498220</v>
       </c>
       <c r="D5" s="3">
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1995,13 +1995,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="2">
-        <v>158.775</v>
+        <v>177.88</v>
       </c>
       <c r="C6" s="2">
-        <v>285795000000</v>
+        <v>314220281099</v>
       </c>
       <c r="D6" s="3">
-        <v>62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2015,7 +2015,7 @@
         <v>36387430583</v>
       </c>
       <c r="D7" s="3">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2029,7 +2029,7 @@
         <v>17180642928</v>
       </c>
       <c r="D8" s="3">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2037,13 +2037,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="2">
-        <v>110.48</v>
+        <v>115.49</v>
       </c>
       <c r="C9" s="2">
-        <v>191799747057</v>
+        <v>200396433537</v>
       </c>
       <c r="D9" s="3">
-        <v>89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2051,13 +2051,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="2">
-        <v>347.1</v>
+        <v>374.6</v>
       </c>
       <c r="C10" s="2">
-        <v>220407028643</v>
+        <v>249675227005</v>
       </c>
       <c r="D10" s="3">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2065,13 +2065,13 @@
         <v>13</v>
       </c>
       <c r="B11" s="2">
-        <v>579.495</v>
+        <v>492.46</v>
       </c>
       <c r="C11" s="2">
-        <v>263844073500</v>
+        <v>222860902637</v>
       </c>
       <c r="D11" s="3">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2079,13 +2079,13 @@
         <v>14</v>
       </c>
       <c r="B12" s="2">
-        <v>195.25</v>
+        <v>195.2</v>
       </c>
       <c r="C12" s="2">
-        <v>96895092630</v>
+        <v>96801270880</v>
       </c>
       <c r="D12" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2093,13 +2093,13 @@
         <v>15</v>
       </c>
       <c r="B13" s="2">
-        <v>72.97</v>
+        <v>59.31</v>
       </c>
       <c r="C13" s="2">
-        <v>38920830177</v>
+        <v>30239153264</v>
       </c>
       <c r="D13" s="3">
-        <v>135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2107,13 +2107,13 @@
         <v>16</v>
       </c>
       <c r="B14" s="2">
-        <v>232.695</v>
+        <v>242.09</v>
       </c>
       <c r="C14" s="2">
-        <v>95708566247</v>
+        <v>99448288365</v>
       </c>
       <c r="D14" s="3">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2121,13 +2121,13 @@
         <v>17</v>
       </c>
       <c r="B15" s="2">
-        <v>235.97</v>
+        <v>254.24</v>
       </c>
       <c r="C15" s="2">
-        <v>50477599240</v>
+        <v>54381936000</v>
       </c>
       <c r="D15" s="3">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2135,13 +2135,13 @@
         <v>18</v>
       </c>
       <c r="B16" s="2">
-        <v>73.7</v>
+        <v>71.58</v>
       </c>
       <c r="C16" s="2">
-        <v>19379050038</v>
+        <v>19060957100</v>
       </c>
       <c r="D16" s="3">
-        <v>134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2149,13 +2149,13 @@
         <v>19</v>
       </c>
       <c r="B17" s="2">
-        <v>82.785</v>
+        <v>82.11</v>
       </c>
       <c r="C17" s="2">
-        <v>43534614278</v>
+        <v>43238327727</v>
       </c>
       <c r="D17" s="3">
-        <v>119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2163,13 +2163,13 @@
         <v>20</v>
       </c>
       <c r="B18" s="2">
-        <v>19.455</v>
+        <v>15.01</v>
       </c>
       <c r="C18" s="2">
-        <v>13027632876</v>
+        <v>10669231893</v>
       </c>
       <c r="D18" s="3">
-        <v>508</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2177,13 +2177,13 @@
         <v>21</v>
       </c>
       <c r="B19" s="2">
-        <v>82.95999999999999</v>
+        <v>84.37</v>
       </c>
       <c r="C19" s="2">
-        <v>48480155591</v>
+        <v>48682192633</v>
       </c>
       <c r="D19" s="3">
-        <v>119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2191,13 +2191,13 @@
         <v>22</v>
       </c>
       <c r="B20" s="2">
-        <v>68.59</v>
+        <v>76.27</v>
       </c>
       <c r="C20" s="2">
-        <v>48152947126</v>
+        <v>51936335038</v>
       </c>
       <c r="D20" s="3">
-        <v>144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2205,13 +2205,13 @@
         <v>23</v>
       </c>
       <c r="B21" s="2">
-        <v>7.885</v>
+        <v>7.44</v>
       </c>
       <c r="C21" s="2">
-        <v>1149315014</v>
+        <v>1077398795</v>
       </c>
       <c r="D21" s="3">
-        <v>1255</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2219,13 +2219,13 @@
         <v>24</v>
       </c>
       <c r="B22" s="2">
-        <v>169.7</v>
+        <v>181.16</v>
       </c>
       <c r="C22" s="2">
-        <v>8924628214</v>
+        <v>9416268175</v>
       </c>
       <c r="D22" s="3">
-        <v>58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2233,13 +2233,13 @@
         <v>25</v>
       </c>
       <c r="B23" s="2">
-        <v>224.65</v>
+        <v>253.17</v>
       </c>
       <c r="C23" s="2">
-        <v>48501935000</v>
+        <v>54887256000</v>
       </c>
       <c r="D23" s="3">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2247,13 +2247,13 @@
         <v>26</v>
       </c>
       <c r="B24" s="2">
-        <v>116.97</v>
+        <v>107.25</v>
       </c>
       <c r="C24" s="2">
-        <v>17642768509</v>
+        <v>16251624675</v>
       </c>
       <c r="D24" s="3">
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2261,13 +2261,13 @@
         <v>27</v>
       </c>
       <c r="B25" s="2">
-        <v>149.15</v>
+        <v>122.14</v>
       </c>
       <c r="C25" s="2">
-        <v>17503240519</v>
+        <v>14339596191</v>
       </c>
       <c r="D25" s="3">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2275,13 +2275,13 @@
         <v>28</v>
       </c>
       <c r="B26" s="2">
-        <v>270</v>
+        <v>314.35</v>
       </c>
       <c r="C26" s="2">
-        <v>20679060780</v>
+        <v>23608983894</v>
       </c>
       <c r="D26" s="3">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2289,13 +2289,13 @@
         <v>29</v>
       </c>
       <c r="B27" s="2">
-        <v>39.19</v>
+        <v>38.18</v>
       </c>
       <c r="C27" s="2">
-        <v>5018400088</v>
+        <v>4812548758</v>
       </c>
       <c r="D27" s="3">
-        <v>252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2303,13 +2303,13 @@
         <v>30</v>
       </c>
       <c r="B28" s="2">
-        <v>142.855</v>
+        <v>162.2</v>
       </c>
       <c r="C28" s="2">
-        <v>37383305528</v>
+        <v>42669534713</v>
       </c>
       <c r="D28" s="3">
-        <v>69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2317,13 +2317,13 @@
         <v>31</v>
       </c>
       <c r="B29" s="2">
-        <v>124.83</v>
+        <v>130.39</v>
       </c>
       <c r="C29" s="2">
-        <v>10958521864</v>
+        <v>11416216651</v>
       </c>
       <c r="D29" s="3">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2337,7 +2337,7 @@
         <v>40336009475</v>
       </c>
       <c r="D30" s="3">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2345,13 +2345,13 @@
         <v>33</v>
       </c>
       <c r="B31" s="2">
-        <v>157.16</v>
+        <v>198.65</v>
       </c>
       <c r="C31" s="2">
-        <v>130610506222</v>
+        <v>165057759769</v>
       </c>
       <c r="D31" s="3">
-        <v>62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2359,13 +2359,13 @@
         <v>34</v>
       </c>
       <c r="B32" s="2">
-        <v>9.865</v>
+        <v>9.48</v>
       </c>
       <c r="C32" s="2">
-        <v>14269105928</v>
+        <v>13701853650</v>
       </c>
       <c r="D32" s="3">
-        <v>1003</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2373,13 +2373,13 @@
         <v>35</v>
       </c>
       <c r="B33" s="2">
-        <v>139.93</v>
+        <v>191.06</v>
       </c>
       <c r="C33" s="2">
-        <v>223888000000</v>
+        <v>305696000000</v>
       </c>
       <c r="D33" s="3">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2387,13 +2387,13 @@
         <v>36</v>
       </c>
       <c r="B34" s="2">
-        <v>162.86</v>
+        <v>181.52</v>
       </c>
       <c r="C34" s="2">
-        <v>37587869279</v>
+        <v>41969510935</v>
       </c>
       <c r="D34" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2401,13 +2401,13 @@
         <v>37</v>
       </c>
       <c r="B35" s="2">
-        <v>299.59</v>
+        <v>268.87</v>
       </c>
       <c r="C35" s="2">
-        <v>160333985109</v>
+        <v>144092514912</v>
       </c>
       <c r="D35" s="3">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2415,13 +2415,13 @@
         <v>38</v>
       </c>
       <c r="B36" s="2">
-        <v>379.1</v>
+        <v>419.49</v>
       </c>
       <c r="C36" s="2">
-        <v>38363476387</v>
+        <v>42070909667</v>
       </c>
       <c r="D36" s="3">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2429,13 +2429,13 @@
         <v>39</v>
       </c>
       <c r="B37" s="2">
-        <v>217.48</v>
+        <v>197.34</v>
       </c>
       <c r="C37" s="2">
-        <v>101389176000</v>
+        <v>92029944727</v>
       </c>
       <c r="D37" s="3">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2443,13 +2443,13 @@
         <v>40</v>
       </c>
       <c r="B38" s="2">
-        <v>150.29</v>
+        <v>174.42</v>
       </c>
       <c r="C38" s="2">
-        <v>1553101456770</v>
+        <v>1811767044776</v>
       </c>
       <c r="D38" s="3">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2457,13 +2457,13 @@
         <v>41</v>
       </c>
       <c r="B39" s="2">
-        <v>230.51</v>
+        <v>277.73</v>
       </c>
       <c r="C39" s="2">
-        <v>71711693732</v>
+        <v>86827733061</v>
       </c>
       <c r="D39" s="3">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2471,13 +2471,13 @@
         <v>42</v>
       </c>
       <c r="B40" s="2">
-        <v>352.76</v>
+        <v>327.88</v>
       </c>
       <c r="C40" s="2">
-        <v>30645249986</v>
+        <v>28531398559</v>
       </c>
       <c r="D40" s="3">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2491,7 +2491,7 @@
         <v>116342693132</v>
       </c>
       <c r="D41" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2499,13 +2499,13 @@
         <v>44</v>
       </c>
       <c r="B42" s="2">
-        <v>288.845</v>
+        <v>318.99</v>
       </c>
       <c r="C42" s="2">
-        <v>57831490172</v>
+        <v>63254994488</v>
       </c>
       <c r="D42" s="3">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2513,13 +2513,13 @@
         <v>45</v>
       </c>
       <c r="B43" s="2">
-        <v>81.70999999999999</v>
+        <v>87.09</v>
       </c>
       <c r="C43" s="2">
-        <v>12483288311</v>
+        <v>13305220646</v>
       </c>
       <c r="D43" s="3">
-        <v>121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2527,13 +2527,13 @@
         <v>46</v>
       </c>
       <c r="B44" s="2">
-        <v>36.34</v>
+        <v>32</v>
       </c>
       <c r="C44" s="2">
-        <v>11146183759</v>
+        <v>9658202240</v>
       </c>
       <c r="D44" s="3">
-        <v>272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2541,13 +2541,13 @@
         <v>47</v>
       </c>
       <c r="B45" s="2">
-        <v>273.43</v>
+        <v>244.63</v>
       </c>
       <c r="C45" s="2">
-        <v>60758258520</v>
+        <v>54381506106</v>
       </c>
       <c r="D45" s="3">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2555,13 +2555,13 @@
         <v>48</v>
       </c>
       <c r="B46" s="2">
-        <v>96.935</v>
+        <v>109.08</v>
       </c>
       <c r="C46" s="2">
-        <v>57997202242</v>
+        <v>65432167365</v>
       </c>
       <c r="D46" s="3">
-        <v>102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2569,13 +2569,13 @@
         <v>49</v>
       </c>
       <c r="B47" s="2">
-        <v>91.12</v>
+        <v>77.23999999999999</v>
       </c>
       <c r="C47" s="2">
-        <v>25774399017</v>
+        <v>21061698308</v>
       </c>
       <c r="D47" s="3">
-        <v>108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2583,13 +2583,13 @@
         <v>50</v>
       </c>
       <c r="B48" s="2">
-        <v>130.155</v>
+        <v>123.75</v>
       </c>
       <c r="C48" s="2">
-        <v>22617744476</v>
+        <v>21648825000</v>
       </c>
       <c r="D48" s="3">
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2597,13 +2597,13 @@
         <v>51</v>
       </c>
       <c r="B49" s="2">
-        <v>116.77</v>
+        <v>114.55</v>
       </c>
       <c r="C49" s="2">
-        <v>17339890531</v>
+        <v>17278688666</v>
       </c>
       <c r="D49" s="3">
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2617,7 +2617,7 @@
         <v>74289497374</v>
       </c>
       <c r="D50" s="3">
-        <v>104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2625,13 +2625,13 @@
         <v>53</v>
       </c>
       <c r="B51" s="2">
-        <v>187.85</v>
+        <v>183.82</v>
       </c>
       <c r="C51" s="2">
-        <v>26677538789</v>
+        <v>26107093036</v>
       </c>
       <c r="D51" s="3">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2639,13 +2639,13 @@
         <v>54</v>
       </c>
       <c r="B52" s="2">
-        <v>1096.725</v>
+        <v>1235.5</v>
       </c>
       <c r="C52" s="2">
-        <v>513421465537</v>
+        <v>572556938314</v>
       </c>
       <c r="D52" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2653,13 +2653,13 @@
         <v>55</v>
       </c>
       <c r="B53" s="2">
-        <v>200.48</v>
+        <v>215.68</v>
       </c>
       <c r="C53" s="2">
-        <v>16144910613</v>
+        <v>17366639009</v>
       </c>
       <c r="D53" s="3">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2667,13 +2667,13 @@
         <v>56</v>
       </c>
       <c r="B54" s="2">
-        <v>133.2</v>
+        <v>117.14</v>
       </c>
       <c r="C54" s="2">
-        <v>25934705600</v>
+        <v>22813638185</v>
       </c>
       <c r="D54" s="3">
-        <v>74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2681,13 +2681,13 @@
         <v>57</v>
       </c>
       <c r="B55" s="2">
-        <v>188.21</v>
+        <v>218.46</v>
       </c>
       <c r="C55" s="2">
-        <v>137165559313</v>
+        <v>158136593668</v>
       </c>
       <c r="D55" s="3">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2695,13 +2695,13 @@
         <v>58</v>
       </c>
       <c r="B56" s="2">
-        <v>2589.34</v>
+        <v>3124.33</v>
       </c>
       <c r="C56" s="2">
-        <v>44774618703</v>
+        <v>54025614424</v>
       </c>
       <c r="D56" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2709,13 +2709,13 @@
         <v>59</v>
       </c>
       <c r="B57" s="2">
-        <v>253.99</v>
+        <v>182.53</v>
       </c>
       <c r="C57" s="2">
-        <v>153658056670</v>
+        <v>111367978969</v>
       </c>
       <c r="D57" s="3">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2723,13 +2723,13 @@
         <v>60</v>
       </c>
       <c r="B58" s="2">
-        <v>33.955</v>
+        <v>35.41</v>
       </c>
       <c r="C58" s="2">
-        <v>268710770535</v>
+        <v>279407522599</v>
       </c>
       <c r="D58" s="3">
-        <v>291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2737,13 +2737,13 @@
         <v>61</v>
       </c>
       <c r="B59" s="2">
-        <v>39.41</v>
+        <v>41.61</v>
       </c>
       <c r="C59" s="2">
-        <v>19993619490</v>
+        <v>21130699654</v>
       </c>
       <c r="D59" s="3">
-        <v>251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2751,13 +2751,13 @@
         <v>62</v>
       </c>
       <c r="B60" s="2">
-        <v>78.58</v>
+        <v>78.02</v>
       </c>
       <c r="C60" s="2">
-        <v>16926132000</v>
+        <v>16805508000</v>
       </c>
       <c r="D60" s="3">
-        <v>125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2765,13 +2765,13 @@
         <v>63</v>
       </c>
       <c r="B61" s="2">
-        <v>246.25</v>
+        <v>236.71</v>
       </c>
       <c r="C61" s="2">
-        <v>71512231250</v>
+        <v>68385992420</v>
       </c>
       <c r="D61" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2779,13 +2779,13 @@
         <v>64</v>
       </c>
       <c r="B62" s="2">
-        <v>29.27</v>
+        <v>26.9</v>
       </c>
       <c r="C62" s="2">
-        <v>14504073827</v>
+        <v>14164408129</v>
       </c>
       <c r="D62" s="3">
-        <v>338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2793,13 +2793,13 @@
         <v>65</v>
       </c>
       <c r="B63" s="2">
-        <v>57.24</v>
+        <v>53.72</v>
       </c>
       <c r="C63" s="2">
-        <v>27646711131</v>
+        <v>25605533461</v>
       </c>
       <c r="D63" s="3">
-        <v>172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2807,13 +2807,13 @@
         <v>66</v>
       </c>
       <c r="B64" s="2">
-        <v>266.665</v>
+        <v>219.31</v>
       </c>
       <c r="C64" s="2">
-        <v>38639255036</v>
+        <v>31879076609</v>
       </c>
       <c r="D64" s="3">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2821,13 +2821,13 @@
         <v>67</v>
       </c>
       <c r="B65" s="2">
-        <v>329.39</v>
+        <v>333.51</v>
       </c>
       <c r="C65" s="2">
-        <v>9588506008</v>
+        <v>9730459078</v>
       </c>
       <c r="D65" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2835,13 +2835,13 @@
         <v>68</v>
       </c>
       <c r="B66" s="2">
-        <v>52.405</v>
+        <v>54.41</v>
       </c>
       <c r="C66" s="2">
-        <v>40303285134</v>
+        <v>40963729501</v>
       </c>
       <c r="D66" s="3">
-        <v>188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2849,13 +2849,13 @@
         <v>69</v>
       </c>
       <c r="B67" s="2">
-        <v>3495.05</v>
+        <v>3413.98</v>
       </c>
       <c r="C67" s="2">
-        <v>121941850629</v>
+        <v>116659202757</v>
       </c>
       <c r="D67" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2863,13 +2863,13 @@
         <v>70</v>
       </c>
       <c r="B68" s="2">
-        <v>34.3</v>
+        <v>32.32</v>
       </c>
       <c r="C68" s="2">
-        <v>34513822530</v>
+        <v>32348487042</v>
       </c>
       <c r="D68" s="3">
-        <v>288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2877,13 +2877,13 @@
         <v>71</v>
       </c>
       <c r="B69" s="2">
-        <v>800.63</v>
+        <v>802.52</v>
       </c>
       <c r="C69" s="2">
-        <v>119103697157</v>
+        <v>119529327877</v>
       </c>
       <c r="D69" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2897,7 +2897,7 @@
         <v>22222129619</v>
       </c>
       <c r="D70" s="3">
-        <v>142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2905,13 +2905,13 @@
         <v>73</v>
       </c>
       <c r="B71" s="2">
-        <v>52.95</v>
+        <v>52.34</v>
       </c>
       <c r="C71" s="2">
-        <v>107740422439</v>
+        <v>105841603132</v>
       </c>
       <c r="D71" s="3">
-        <v>186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2919,13 +2919,13 @@
         <v>74</v>
       </c>
       <c r="B72" s="2">
-        <v>201.06</v>
+        <v>200.2</v>
       </c>
       <c r="C72" s="2">
-        <v>23654105820</v>
+        <v>23577998244</v>
       </c>
       <c r="D72" s="3">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2933,13 +2933,13 @@
         <v>75</v>
       </c>
       <c r="B73" s="2">
-        <v>359.69</v>
+        <v>408.13</v>
       </c>
       <c r="C73" s="2">
-        <v>783491881885</v>
+        <v>885224505873</v>
       </c>
       <c r="D73" s="3">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2947,13 +2947,13 @@
         <v>76</v>
       </c>
       <c r="B74" s="2">
-        <v>57.77</v>
+        <v>66.23</v>
       </c>
       <c r="C74" s="2">
-        <v>84632055027</v>
+        <v>99345000000</v>
       </c>
       <c r="D74" s="3">
-        <v>171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2961,13 +2961,13 @@
         <v>77</v>
       </c>
       <c r="B75" s="2">
-        <v>36.255</v>
+        <v>32.12</v>
       </c>
       <c r="C75" s="2">
-        <v>8521934578</v>
+        <v>7380535302</v>
       </c>
       <c r="D75" s="3">
-        <v>273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2975,13 +2975,13 @@
         <v>78</v>
       </c>
       <c r="B76" s="2">
-        <v>71.825</v>
+        <v>62.6</v>
       </c>
       <c r="C76" s="2">
-        <v>11272228429</v>
+        <v>9828887348</v>
       </c>
       <c r="D76" s="3">
-        <v>137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2989,13 +2989,13 @@
         <v>79</v>
       </c>
       <c r="B77" s="2">
-        <v>52.705</v>
+        <v>57.61</v>
       </c>
       <c r="C77" s="2">
-        <v>100871147279</v>
+        <v>110113840369</v>
       </c>
       <c r="D77" s="3">
-        <v>187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3003,13 +3003,13 @@
         <v>80</v>
       </c>
       <c r="B78" s="2">
-        <v>29.55</v>
+        <v>28.07</v>
       </c>
       <c r="C78" s="2">
-        <v>14123950884</v>
+        <v>13417601136</v>
       </c>
       <c r="D78" s="3">
-        <v>335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3017,13 +3017,13 @@
         <v>81</v>
       </c>
       <c r="B79" s="2">
-        <v>102.44</v>
+        <v>110.61</v>
       </c>
       <c r="C79" s="2">
-        <v>25248195545</v>
+        <v>26904019053</v>
       </c>
       <c r="D79" s="3">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3031,13 +3031,13 @@
         <v>82</v>
       </c>
       <c r="B80" s="2">
-        <v>56.98</v>
+        <v>57.05</v>
       </c>
       <c r="C80" s="2">
-        <v>47808874071</v>
+        <v>51350871415</v>
       </c>
       <c r="D80" s="3">
-        <v>173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3045,13 +3045,13 @@
         <v>83</v>
       </c>
       <c r="B81" s="2">
-        <v>294.13</v>
+        <v>346.97</v>
       </c>
       <c r="C81" s="2">
-        <v>149737095459</v>
+        <v>173276818000</v>
       </c>
       <c r="D81" s="3">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3059,13 +3059,13 @@
         <v>84</v>
       </c>
       <c r="B82" s="2">
-        <v>227.38</v>
+        <v>256.29</v>
       </c>
       <c r="C82" s="2">
-        <v>92768743007</v>
+        <v>103991921827</v>
       </c>
       <c r="D82" s="3">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3073,13 +3073,13 @@
         <v>85</v>
       </c>
       <c r="B83" s="2">
-        <v>176.485</v>
+        <v>183.52</v>
       </c>
       <c r="C83" s="2">
-        <v>18629048719</v>
+        <v>19376328075</v>
       </c>
       <c r="D83" s="3">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3087,13 +3087,13 @@
         <v>86</v>
       </c>
       <c r="B84" s="2">
-        <v>93.22</v>
+        <v>93.20999999999999</v>
       </c>
       <c r="C84" s="2">
-        <v>28412784909</v>
+        <v>28493912509</v>
       </c>
       <c r="D84" s="3">
-        <v>106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3101,13 +3101,13 @@
         <v>87</v>
       </c>
       <c r="B85" s="2">
-        <v>116.11</v>
+        <v>105.77</v>
       </c>
       <c r="C85" s="2">
-        <v>50355613883</v>
+        <v>45926949002</v>
       </c>
       <c r="D85" s="3">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3115,13 +3115,13 @@
         <v>88</v>
       </c>
       <c r="B86" s="2">
-        <v>17.79</v>
+        <v>16.26</v>
       </c>
       <c r="C86" s="2">
-        <v>19914930624</v>
+        <v>18202179424</v>
       </c>
       <c r="D86" s="3">
-        <v>556</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3129,13 +3129,13 @@
         <v>89</v>
       </c>
       <c r="B87" s="2">
-        <v>262.6</v>
+        <v>298.44</v>
       </c>
       <c r="C87" s="2">
-        <v>71443481200</v>
+        <v>81247007160</v>
       </c>
       <c r="D87" s="3">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3143,13 +3143,13 @@
         <v>90</v>
       </c>
       <c r="B88" s="2">
-        <v>223.03</v>
+        <v>245.51</v>
       </c>
       <c r="C88" s="2">
-        <v>29877181098</v>
+        <v>32951153866</v>
       </c>
       <c r="D88" s="3">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3157,13 +3157,13 @@
         <v>91</v>
       </c>
       <c r="B89" s="2">
-        <v>155.365</v>
+        <v>160.05</v>
       </c>
       <c r="C89" s="2">
-        <v>16912283021</v>
+        <v>17430473481</v>
       </c>
       <c r="D89" s="3">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3177,7 +3177,7 @@
         <v>27915791082</v>
       </c>
       <c r="D90" s="3">
-        <v>104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3185,13 +3185,13 @@
         <v>93</v>
       </c>
       <c r="B91" s="2">
-        <v>80.88</v>
+        <v>83.42</v>
       </c>
       <c r="C91" s="2">
-        <v>15452649801</v>
+        <v>15660134870</v>
       </c>
       <c r="D91" s="3">
-        <v>122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3199,13 +3199,13 @@
         <v>94</v>
       </c>
       <c r="B92" s="2">
-        <v>33.625</v>
+        <v>33.49</v>
       </c>
       <c r="C92" s="2">
-        <v>15676747265</v>
+        <v>15352787243</v>
       </c>
       <c r="D92" s="3">
-        <v>294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3213,13 +3213,13 @@
         <v>95</v>
       </c>
       <c r="B93" s="2">
-        <v>94.93000000000001</v>
+        <v>104.34</v>
       </c>
       <c r="C93" s="2">
-        <v>23389017819</v>
+        <v>25435692180</v>
       </c>
       <c r="D93" s="3">
-        <v>104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3227,13 +3227,13 @@
         <v>96</v>
       </c>
       <c r="B94" s="2">
-        <v>87.47</v>
+        <v>73.94</v>
       </c>
       <c r="C94" s="2">
-        <v>10203466206</v>
+        <v>8642902794</v>
       </c>
       <c r="D94" s="3">
-        <v>113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3241,13 +3241,13 @@
         <v>97</v>
       </c>
       <c r="B95" s="2">
-        <v>391.37</v>
+        <v>290.65</v>
       </c>
       <c r="C95" s="2">
-        <v>57891561940</v>
+        <v>46875836683</v>
       </c>
       <c r="D95" s="3">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3255,13 +3255,13 @@
         <v>98</v>
       </c>
       <c r="B96" s="2">
-        <v>308.3</v>
+        <v>352.05</v>
       </c>
       <c r="C96" s="2">
-        <v>90214735518</v>
+        <v>102923585495</v>
       </c>
       <c r="D96" s="3">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3269,13 +3269,13 @@
         <v>99</v>
       </c>
       <c r="B97" s="2">
-        <v>104.435</v>
+        <v>119.9</v>
       </c>
       <c r="C97" s="2">
-        <v>16386657738</v>
+        <v>18784135658</v>
       </c>
       <c r="D97" s="3">
-        <v>94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3283,13 +3283,13 @@
         <v>100</v>
       </c>
       <c r="B98" s="2">
-        <v>80.11499999999999</v>
+        <v>88.45</v>
       </c>
       <c r="C98" s="2">
-        <v>65964468530</v>
+        <v>72807698786</v>
       </c>
       <c r="D98" s="3">
-        <v>123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3297,13 +3297,13 @@
         <v>101</v>
       </c>
       <c r="B99" s="2">
-        <v>144.03</v>
+        <v>150.16</v>
       </c>
       <c r="C99" s="2">
-        <v>17868231885</v>
+        <v>18635806963</v>
       </c>
       <c r="D99" s="3">
-        <v>68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3311,13 +3311,13 @@
         <v>102</v>
       </c>
       <c r="B100" s="2">
-        <v>56.325</v>
+        <v>49.49</v>
       </c>
       <c r="C100" s="2">
-        <v>7427736136</v>
+        <v>6556913620</v>
       </c>
       <c r="D100" s="3">
-        <v>175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3325,13 +3325,13 @@
         <v>103</v>
       </c>
       <c r="B101" s="2">
-        <v>43.92</v>
+        <v>42.77</v>
       </c>
       <c r="C101" s="2">
-        <v>176366705626</v>
+        <v>169472402470</v>
       </c>
       <c r="D101" s="3">
-        <v>225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3339,13 +3339,13 @@
         <v>104</v>
       </c>
       <c r="B102" s="2">
-        <v>209.04</v>
+        <v>217.5</v>
       </c>
       <c r="C102" s="2">
-        <v>75252275736</v>
+        <v>78298229115</v>
       </c>
       <c r="D102" s="3">
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3353,13 +3353,13 @@
         <v>105</v>
       </c>
       <c r="B103" s="2">
-        <v>2259.19</v>
+        <v>2756.39</v>
       </c>
       <c r="C103" s="2">
-        <v>62002701425</v>
+        <v>75583436020</v>
       </c>
       <c r="D103" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3367,13 +3367,13 @@
         <v>106</v>
       </c>
       <c r="B104" s="2">
-        <v>241.335</v>
+        <v>274.84</v>
       </c>
       <c r="C104" s="2">
-        <v>34207996512</v>
+        <v>38987935829</v>
       </c>
       <c r="D104" s="3">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3381,13 +3381,13 @@
         <v>107</v>
       </c>
       <c r="B105" s="2">
-        <v>58.98</v>
+        <v>57.82</v>
       </c>
       <c r="C105" s="2">
-        <v>17208215182</v>
+        <v>17024730108</v>
       </c>
       <c r="D105" s="3">
-        <v>167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3395,13 +3395,13 @@
         <v>108</v>
       </c>
       <c r="B106" s="2">
-        <v>76.8</v>
+        <v>75.47</v>
       </c>
       <c r="C106" s="2">
-        <v>41026636800</v>
+        <v>40366110610</v>
       </c>
       <c r="D106" s="3">
-        <v>128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3409,13 +3409,13 @@
         <v>109</v>
       </c>
       <c r="B107" s="2">
-        <v>28.86</v>
+        <v>27.87</v>
       </c>
       <c r="C107" s="2">
-        <v>18217111942</v>
+        <v>17602544456</v>
       </c>
       <c r="D107" s="3">
-        <v>343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3423,13 +3423,13 @@
         <v>110</v>
       </c>
       <c r="B108" s="2">
-        <v>131.58</v>
+        <v>135.55</v>
       </c>
       <c r="C108" s="2">
-        <v>50111818128</v>
+        <v>51537766421</v>
       </c>
       <c r="D108" s="3">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3443,7 +3443,7 @@
         <v>8892528027</v>
       </c>
       <c r="D109" s="3">
-        <v>444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3451,13 +3451,13 @@
         <v>112</v>
       </c>
       <c r="B110" s="2">
-        <v>375.47</v>
+        <v>100.71</v>
       </c>
       <c r="C110" s="2">
-        <v>18595520462</v>
+        <v>20016745362</v>
       </c>
       <c r="D110" s="3">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3465,13 +3465,13 @@
         <v>113</v>
       </c>
       <c r="B111" s="2">
-        <v>118.07</v>
+        <v>120.04</v>
       </c>
       <c r="C111" s="2">
-        <v>140197255712</v>
+        <v>141216060495</v>
       </c>
       <c r="D111" s="3">
-        <v>83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3479,13 +3479,13 @@
         <v>114</v>
       </c>
       <c r="B112" s="2">
-        <v>651.9</v>
+        <v>725.63</v>
       </c>
       <c r="C112" s="2">
-        <v>289266554390</v>
+        <v>321819833643</v>
       </c>
       <c r="D112" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3493,13 +3493,13 @@
         <v>115</v>
       </c>
       <c r="B113" s="2">
-        <v>12.19</v>
+        <v>12.34</v>
       </c>
       <c r="C113" s="2">
-        <v>10869470002</v>
+        <v>11046384004</v>
       </c>
       <c r="D113" s="3">
-        <v>812</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3507,13 +3507,13 @@
         <v>116</v>
       </c>
       <c r="B114" s="2">
-        <v>44.595</v>
+        <v>42.71</v>
       </c>
       <c r="C114" s="2">
-        <v>13355131819</v>
+        <v>12731962089</v>
       </c>
       <c r="D114" s="3">
-        <v>222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3521,13 +3521,13 @@
         <v>117</v>
       </c>
       <c r="B115" s="2">
-        <v>47.825</v>
+        <v>56.13</v>
       </c>
       <c r="C115" s="2">
-        <v>45921565000</v>
+        <v>53968995000</v>
       </c>
       <c r="D115" s="3">
-        <v>207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3535,13 +3535,13 @@
         <v>118</v>
       </c>
       <c r="B116" s="2">
-        <v>257.18</v>
+        <v>294.33</v>
       </c>
       <c r="C116" s="2">
-        <v>248950240000</v>
+        <v>285500100000</v>
       </c>
       <c r="D116" s="3">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3549,13 +3549,13 @@
         <v>119</v>
       </c>
       <c r="B117" s="2">
-        <v>50.525</v>
+        <v>48.93</v>
       </c>
       <c r="C117" s="2">
-        <v>205307108530</v>
+        <v>198126723824</v>
       </c>
       <c r="D117" s="3">
-        <v>195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3563,13 +3563,13 @@
         <v>120</v>
       </c>
       <c r="B118" s="2">
-        <v>34.765</v>
+        <v>36.97</v>
       </c>
       <c r="C118" s="2">
-        <v>68700195432</v>
+        <v>72429196624</v>
       </c>
       <c r="D118" s="3">
-        <v>284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3577,13 +3577,13 @@
         <v>121</v>
       </c>
       <c r="B119" s="2">
-        <v>591.95</v>
+        <v>627.38</v>
       </c>
       <c r="C119" s="2">
-        <v>60292545150</v>
+        <v>63598410890</v>
       </c>
       <c r="D119" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3597,7 +3597,7 @@
         <v>12072940000</v>
       </c>
       <c r="D120" s="3">
-        <v>900</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3605,13 +3605,13 @@
         <v>123</v>
       </c>
       <c r="B121" s="2">
-        <v>74.55500000000001</v>
+        <v>75.33</v>
       </c>
       <c r="C121" s="2">
-        <v>37382812367</v>
+        <v>37499274000</v>
       </c>
       <c r="D121" s="3">
-        <v>132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3619,13 +3619,13 @@
         <v>124</v>
       </c>
       <c r="B122" s="2">
-        <v>48.53</v>
+        <v>55.09</v>
       </c>
       <c r="C122" s="2">
-        <v>34200498370</v>
+        <v>37890739540</v>
       </c>
       <c r="D122" s="3">
-        <v>204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3639,7 +3639,7 @@
         <v>13183359916</v>
       </c>
       <c r="D123" s="3">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3647,13 +3647,13 @@
         <v>126</v>
       </c>
       <c r="B124" s="2">
-        <v>80.98</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="C124" s="2">
-        <v>104212885210</v>
+        <v>97403995402</v>
       </c>
       <c r="D124" s="3">
-        <v>122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3661,13 +3661,13 @@
         <v>127</v>
       </c>
       <c r="B125" s="2">
-        <v>150.83</v>
+        <v>155.55</v>
       </c>
       <c r="C125" s="2">
-        <v>284729131142</v>
+        <v>288898217838</v>
       </c>
       <c r="D125" s="3">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3681,7 +3681,7 @@
         <v>12877584384</v>
       </c>
       <c r="D126" s="3">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3689,13 +3689,13 @@
         <v>129</v>
       </c>
       <c r="B127" s="2">
-        <v>48.385</v>
+        <v>47.84</v>
       </c>
       <c r="C127" s="2">
-        <v>40488411765</v>
+        <v>40063285415</v>
       </c>
       <c r="D127" s="3">
-        <v>204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3703,13 +3703,13 @@
         <v>130</v>
       </c>
       <c r="B128" s="2">
-        <v>40.835</v>
+        <v>43.12</v>
       </c>
       <c r="C128" s="2">
-        <v>26275829287</v>
+        <v>27740124455</v>
       </c>
       <c r="D128" s="3">
-        <v>242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3717,13 +3717,13 @@
         <v>131</v>
       </c>
       <c r="B129" s="2">
-        <v>77.55</v>
+        <v>73.43000000000001</v>
       </c>
       <c r="C129" s="2">
-        <v>33349795255</v>
+        <v>30663109704</v>
       </c>
       <c r="D129" s="3">
-        <v>127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3731,13 +3731,13 @@
         <v>132</v>
       </c>
       <c r="B130" s="2">
-        <v>403.305</v>
+        <v>383.39</v>
       </c>
       <c r="C130" s="2">
-        <v>113028421036</v>
+        <v>106719754132</v>
       </c>
       <c r="D130" s="3">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3745,13 +3745,13 @@
         <v>133</v>
       </c>
       <c r="B131" s="2">
-        <v>112.13</v>
+        <v>120.24</v>
       </c>
       <c r="C131" s="2">
-        <v>28038998494</v>
+        <v>30126768551</v>
       </c>
       <c r="D131" s="3">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3759,13 +3759,13 @@
         <v>134</v>
       </c>
       <c r="B132" s="2">
-        <v>140.35</v>
+        <v>151.95</v>
       </c>
       <c r="C132" s="2">
-        <v>30806439599</v>
+        <v>33352607745</v>
       </c>
       <c r="D132" s="3">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3773,13 +3773,13 @@
         <v>135</v>
       </c>
       <c r="B133" s="2">
-        <v>140.17</v>
+        <v>128.28</v>
       </c>
       <c r="C133" s="2">
-        <v>15760013529</v>
+        <v>14201531546</v>
       </c>
       <c r="D133" s="3">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3787,13 +3787,13 @@
         <v>136</v>
       </c>
       <c r="B134" s="2">
-        <v>150.57</v>
+        <v>151.69</v>
       </c>
       <c r="C134" s="2">
-        <v>50139763474</v>
+        <v>50333363507</v>
       </c>
       <c r="D134" s="3">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3801,13 +3801,13 @@
         <v>137</v>
       </c>
       <c r="B135" s="2">
-        <v>233.81</v>
+        <v>249.4</v>
       </c>
       <c r="C135" s="2">
-        <v>172768546888</v>
+        <v>184481610215</v>
       </c>
       <c r="D135" s="3">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3815,13 +3815,13 @@
         <v>138</v>
       </c>
       <c r="B136" s="2">
-        <v>91.22</v>
+        <v>111.95</v>
       </c>
       <c r="C136" s="2">
-        <v>166961418314</v>
+        <v>205350135208</v>
       </c>
       <c r="D136" s="3">
-        <v>108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3835,7 +3835,7 @@
         <v>12449494875</v>
       </c>
       <c r="D137" s="3">
-        <v>405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3846,7 +3846,7 @@
         <v>24.42</v>
       </c>
       <c r="D138" s="3">
-        <v>405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3860,7 +3860,7 @@
         <v>3062174757</v>
       </c>
       <c r="D139" s="3">
-        <v>1715</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3868,13 +3868,13 @@
         <v>142</v>
       </c>
       <c r="B140" s="2">
-        <v>135.185</v>
+        <v>140.86</v>
       </c>
       <c r="C140" s="2">
-        <v>40941059787</v>
+        <v>43989671284</v>
       </c>
       <c r="D140" s="3">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3882,13 +3882,13 @@
         <v>143</v>
       </c>
       <c r="B141" s="2">
-        <v>143.81</v>
+        <v>127.42</v>
       </c>
       <c r="C141" s="2">
-        <v>31332163260</v>
+        <v>27761242213</v>
       </c>
       <c r="D141" s="3">
-        <v>68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3896,13 +3896,13 @@
         <v>144</v>
       </c>
       <c r="B142" s="2">
-        <v>153.305</v>
+        <v>175.53</v>
       </c>
       <c r="C142" s="2">
-        <v>21445858526</v>
+        <v>24556062485</v>
       </c>
       <c r="D142" s="3">
-        <v>64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3910,13 +3910,13 @@
         <v>145</v>
       </c>
       <c r="B143" s="2">
-        <v>55.485</v>
+        <v>57.04</v>
       </c>
       <c r="C143" s="2">
-        <v>38917012878</v>
+        <v>40058817418</v>
       </c>
       <c r="D143" s="3">
-        <v>178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3924,13 +3924,13 @@
         <v>146</v>
       </c>
       <c r="B144" s="2">
-        <v>413.155</v>
+        <v>441.22</v>
       </c>
       <c r="C144" s="2">
-        <v>14411252531</v>
+        <v>15360069642</v>
       </c>
       <c r="D144" s="3">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3944,7 +3944,7 @@
         <v>18556648911</v>
       </c>
       <c r="D145" s="3">
-        <v>205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3952,13 +3952,13 @@
         <v>148</v>
       </c>
       <c r="B146" s="2">
-        <v>164.51</v>
+        <v>171.96</v>
       </c>
       <c r="C146" s="2">
-        <v>19792970803</v>
+        <v>20533883403</v>
       </c>
       <c r="D146" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3966,13 +3966,13 @@
         <v>149</v>
       </c>
       <c r="B147" s="2">
-        <v>111.58</v>
+        <v>108.48</v>
       </c>
       <c r="C147" s="2">
-        <v>23014348759</v>
+        <v>22447227905</v>
       </c>
       <c r="D147" s="3">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3980,13 +3980,13 @@
         <v>150</v>
       </c>
       <c r="B148" s="2">
-        <v>97.58499999999999</v>
+        <v>94.70999999999999</v>
       </c>
       <c r="C148" s="2">
-        <v>75209903977</v>
+        <v>73064767670</v>
       </c>
       <c r="D148" s="3">
-        <v>101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3994,13 +3994,13 @@
         <v>151</v>
       </c>
       <c r="B149" s="2">
-        <v>107.045</v>
+        <v>136.65</v>
       </c>
       <c r="C149" s="2">
-        <v>9773208500</v>
+        <v>11984205000</v>
       </c>
       <c r="D149" s="3">
-        <v>92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4008,13 +4008,13 @@
         <v>152</v>
       </c>
       <c r="B150" s="2">
-        <v>46.155</v>
+        <v>47.62</v>
       </c>
       <c r="C150" s="2">
-        <v>29571508500</v>
+        <v>30238700000</v>
       </c>
       <c r="D150" s="3">
-        <v>214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4022,13 +4022,13 @@
         <v>153</v>
       </c>
       <c r="B151" s="2">
-        <v>22.97</v>
+        <v>20.64</v>
       </c>
       <c r="C151" s="2">
-        <v>4447992573</v>
+        <v>3774450133</v>
       </c>
       <c r="D151" s="3">
-        <v>431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4036,13 +4036,13 @@
         <v>154</v>
       </c>
       <c r="B152" s="2">
-        <v>124.12</v>
+        <v>130.46</v>
       </c>
       <c r="C152" s="2">
-        <v>47956732812</v>
+        <v>50294341824</v>
       </c>
       <c r="D152" s="3">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4050,13 +4050,13 @@
         <v>155</v>
       </c>
       <c r="B153" s="2">
-        <v>135.53</v>
+        <v>134.27</v>
       </c>
       <c r="C153" s="2">
-        <v>36453022562</v>
+        <v>35897146398</v>
       </c>
       <c r="D153" s="3">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4064,13 +4064,13 @@
         <v>156</v>
       </c>
       <c r="B154" s="2">
-        <v>44.025</v>
+        <v>52.2</v>
       </c>
       <c r="C154" s="2">
-        <v>22848975000</v>
+        <v>27039600000</v>
       </c>
       <c r="D154" s="3">
-        <v>224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4078,13 +4078,13 @@
         <v>157</v>
       </c>
       <c r="B155" s="2">
-        <v>197.9</v>
+        <v>226.13</v>
       </c>
       <c r="C155" s="2">
-        <v>56429170378</v>
+        <v>64563089740</v>
       </c>
       <c r="D155" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4092,13 +4092,13 @@
         <v>158</v>
       </c>
       <c r="B156" s="2">
-        <v>92.04000000000001</v>
+        <v>88.94</v>
       </c>
       <c r="C156" s="2">
-        <v>31774028459</v>
+        <v>30729662157</v>
       </c>
       <c r="D156" s="3">
-        <v>107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4106,13 +4106,13 @@
         <v>159</v>
       </c>
       <c r="B157" s="2">
-        <v>239.03</v>
+        <v>252.94</v>
       </c>
       <c r="C157" s="2">
-        <v>29452505967</v>
+        <v>31353529540</v>
       </c>
       <c r="D157" s="3">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4120,13 +4120,13 @@
         <v>160</v>
       </c>
       <c r="B158" s="2">
-        <v>72.09</v>
+        <v>68.8</v>
       </c>
       <c r="C158" s="2">
-        <v>27651468520</v>
+        <v>26455270189</v>
       </c>
       <c r="D158" s="3">
-        <v>137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4134,13 +4134,13 @@
         <v>161</v>
       </c>
       <c r="B159" s="2">
-        <v>145.49</v>
+        <v>149.75</v>
       </c>
       <c r="C159" s="2">
-        <v>51925381000</v>
+        <v>53445775000</v>
       </c>
       <c r="D159" s="3">
-        <v>68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4148,13 +4148,13 @@
         <v>162</v>
       </c>
       <c r="B160" s="2">
-        <v>89.89</v>
+        <v>92.3</v>
       </c>
       <c r="C160" s="2">
-        <v>10657719129</v>
+        <v>10830829140</v>
       </c>
       <c r="D160" s="3">
-        <v>110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4162,13 +4162,13 @@
         <v>163</v>
       </c>
       <c r="B161" s="2">
-        <v>95.95</v>
+        <v>110.59</v>
       </c>
       <c r="C161" s="2">
-        <v>54701095000</v>
+        <v>63124772000</v>
       </c>
       <c r="D161" s="3">
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4176,13 +4176,13 @@
         <v>164</v>
       </c>
       <c r="B162" s="2">
-        <v>122.295</v>
+        <v>122.79</v>
       </c>
       <c r="C162" s="2">
-        <v>71316280577</v>
+        <v>71218429863</v>
       </c>
       <c r="D162" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4190,13 +4190,13 @@
         <v>165</v>
       </c>
       <c r="B163" s="2">
-        <v>810.9</v>
+        <v>850.39</v>
       </c>
       <c r="C163" s="2">
-        <v>76130068522</v>
+        <v>80464752190</v>
       </c>
       <c r="D163" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4204,13 +4204,13 @@
         <v>166</v>
       </c>
       <c r="B164" s="2">
-        <v>61.98</v>
+        <v>63.03</v>
       </c>
       <c r="C164" s="2">
-        <v>23535351409</v>
+        <v>23923262841</v>
       </c>
       <c r="D164" s="3">
-        <v>159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4218,13 +4218,13 @@
         <v>167</v>
       </c>
       <c r="B165" s="2">
-        <v>63.5</v>
+        <v>58.92</v>
       </c>
       <c r="C165" s="2">
-        <v>22182214272</v>
+        <v>20603568822</v>
       </c>
       <c r="D165" s="3">
-        <v>155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4232,13 +4232,13 @@
         <v>168</v>
       </c>
       <c r="B166" s="2">
-        <v>250.67</v>
+        <v>239.07</v>
       </c>
       <c r="C166" s="2">
-        <v>16089154685</v>
+        <v>15349130028</v>
       </c>
       <c r="D166" s="3">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4252,7 +4252,7 @@
         <v>10891188960</v>
       </c>
       <c r="D167" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4260,13 +4260,13 @@
         <v>170</v>
       </c>
       <c r="B168" s="2">
-        <v>239.3</v>
+        <v>297.9</v>
       </c>
       <c r="C168" s="2">
-        <v>95552490000</v>
+        <v>119011050000</v>
       </c>
       <c r="D168" s="3">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4274,13 +4274,13 @@
         <v>171</v>
       </c>
       <c r="B169" s="2">
-        <v>101.82</v>
+        <v>101.96</v>
       </c>
       <c r="C169" s="2">
-        <v>21532188395</v>
+        <v>21741700802</v>
       </c>
       <c r="D169" s="3">
-        <v>97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4288,13 +4288,13 @@
         <v>172</v>
       </c>
       <c r="B170" s="2">
-        <v>53.175</v>
+        <v>51.6</v>
       </c>
       <c r="C170" s="2">
-        <v>12215401253</v>
+        <v>11854081726</v>
       </c>
       <c r="D170" s="3">
-        <v>186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4302,13 +4302,13 @@
         <v>173</v>
       </c>
       <c r="B171" s="2">
-        <v>75.64</v>
+        <v>92.31</v>
       </c>
       <c r="C171" s="2">
-        <v>45875660000</v>
+        <v>55506003000</v>
       </c>
       <c r="D171" s="3">
-        <v>130</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4316,13 +4316,13 @@
         <v>174</v>
       </c>
       <c r="B172" s="2">
-        <v>36.3</v>
+        <v>36.48</v>
       </c>
       <c r="C172" s="2">
-        <v>36134378201</v>
+        <v>36463166012</v>
       </c>
       <c r="D172" s="3">
-        <v>272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4330,13 +4330,13 @@
         <v>175</v>
       </c>
       <c r="B173" s="2">
-        <v>126.87</v>
+        <v>119.86</v>
       </c>
       <c r="C173" s="2">
-        <v>18445549499</v>
+        <v>17247769019</v>
       </c>
       <c r="D173" s="3">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4344,13 +4344,13 @@
         <v>176</v>
       </c>
       <c r="B174" s="2">
-        <v>149.305</v>
+        <v>133.47</v>
       </c>
       <c r="C174" s="2">
-        <v>19906056278</v>
+        <v>17457876000</v>
       </c>
       <c r="D174" s="3">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4358,13 +4358,13 @@
         <v>177</v>
       </c>
       <c r="B175" s="2">
-        <v>164.395</v>
+        <v>139.33</v>
       </c>
       <c r="C175" s="2">
-        <v>34733017548</v>
+        <v>29478682330</v>
       </c>
       <c r="D175" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4372,13 +4372,13 @@
         <v>178</v>
       </c>
       <c r="B176" s="2">
-        <v>12.355</v>
+        <v>12.06</v>
       </c>
       <c r="C176" s="2">
-        <v>48581124670</v>
+        <v>47067539246</v>
       </c>
       <c r="D176" s="3">
-        <v>801</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4386,13 +4386,13 @@
         <v>179</v>
       </c>
       <c r="B177" s="2">
-        <v>157.87</v>
+        <v>189.94</v>
       </c>
       <c r="C177" s="2">
-        <v>28256347900</v>
+        <v>33894143975</v>
       </c>
       <c r="D177" s="3">
-        <v>62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4400,13 +4400,13 @@
         <v>180</v>
       </c>
       <c r="B178" s="2">
-        <v>63.835</v>
+        <v>75.03</v>
       </c>
       <c r="C178" s="2">
-        <v>36476159388</v>
+        <v>42934623608</v>
       </c>
       <c r="D178" s="3">
-        <v>155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4420,7 +4420,7 @@
         <v>561210585170</v>
       </c>
       <c r="D179" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4431,7 +4431,7 @@
         <v>57.62</v>
       </c>
       <c r="D180" s="3">
-        <v>171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4439,13 +4439,13 @@
         <v>183</v>
       </c>
       <c r="B181" s="2">
-        <v>42.295</v>
+        <v>44.61</v>
       </c>
       <c r="C181" s="2">
-        <v>60650067535</v>
+        <v>63988985936</v>
       </c>
       <c r="D181" s="3">
-        <v>234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4453,13 +4453,13 @@
         <v>184</v>
       </c>
       <c r="B182" s="2">
-        <v>251.96</v>
+        <v>253.29</v>
       </c>
       <c r="C182" s="2">
-        <v>62962926394</v>
+        <v>63295283483</v>
       </c>
       <c r="D182" s="3">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4467,13 +4467,13 @@
         <v>185</v>
       </c>
       <c r="B183" s="2">
-        <v>37.17</v>
+        <v>37.95</v>
       </c>
       <c r="C183" s="2">
-        <v>21328696971</v>
+        <v>21800030258</v>
       </c>
       <c r="D183" s="3">
-        <v>266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4481,13 +4481,13 @@
         <v>186</v>
       </c>
       <c r="B184" s="2">
-        <v>177.3</v>
+        <v>187.9</v>
       </c>
       <c r="C184" s="2">
-        <v>10586088510</v>
+        <v>11049690993</v>
       </c>
       <c r="D184" s="3">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4495,13 +4495,13 @@
         <v>187</v>
       </c>
       <c r="B185" s="2">
-        <v>60.93</v>
+        <v>69.12</v>
       </c>
       <c r="C185" s="2">
-        <v>36100025809</v>
+        <v>39845311672</v>
       </c>
       <c r="D185" s="3">
-        <v>162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4512,7 +4512,7 @@
         <v>114.23</v>
       </c>
       <c r="D186" s="3">
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4520,13 +4520,13 @@
         <v>189</v>
       </c>
       <c r="B187" s="2">
-        <v>34.93</v>
+        <v>35.24</v>
       </c>
       <c r="C187" s="2">
-        <v>23787910397</v>
+        <v>24006259263</v>
       </c>
       <c r="D187" s="3">
-        <v>283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4540,7 +4540,7 @@
         <v>7565007314</v>
       </c>
       <c r="D188" s="3">
-        <v>172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4548,13 +4548,13 @@
         <v>191</v>
       </c>
       <c r="B189" s="2">
-        <v>40.76</v>
+        <v>44.24</v>
       </c>
       <c r="C189" s="2">
-        <v>5348063800</v>
+        <v>5805478321</v>
       </c>
       <c r="D189" s="3">
-        <v>242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4562,13 +4562,13 @@
         <v>192</v>
       </c>
       <c r="B190" s="2">
-        <v>282.275</v>
+        <v>295.64</v>
       </c>
       <c r="C190" s="2">
-        <v>20381419949</v>
+        <v>21345208000</v>
       </c>
       <c r="D190" s="3">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4576,13 +4576,13 @@
         <v>193</v>
       </c>
       <c r="B191" s="2">
-        <v>65.34</v>
+        <v>65.05</v>
       </c>
       <c r="C191" s="2">
-        <v>8151745677</v>
+        <v>8115687438</v>
       </c>
       <c r="D191" s="3">
-        <v>151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4590,13 +4590,13 @@
         <v>194</v>
       </c>
       <c r="B192" s="2">
-        <v>28.215</v>
+        <v>26.89</v>
       </c>
       <c r="C192" s="2">
-        <v>14132017763</v>
+        <v>13405944399</v>
       </c>
       <c r="D192" s="3">
-        <v>350</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4604,13 +4604,13 @@
         <v>195</v>
       </c>
       <c r="B193" s="2">
-        <v>30.3</v>
+        <v>29.55</v>
       </c>
       <c r="C193" s="2">
-        <v>14143091095</v>
+        <v>13405944422</v>
       </c>
       <c r="D193" s="3">
-        <v>326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4624,7 +4624,7 @@
         <v>630560307</v>
       </c>
       <c r="D194" s="3">
-        <v>2820</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4632,13 +4632,13 @@
         <v>197</v>
       </c>
       <c r="B195" s="2">
-        <v>104.32</v>
+        <v>99.12</v>
       </c>
       <c r="C195" s="2">
-        <v>8504506483</v>
+        <v>8225956806</v>
       </c>
       <c r="D195" s="3">
-        <v>94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4646,13 +4646,13 @@
         <v>198</v>
       </c>
       <c r="B196" s="2">
-        <v>20.155</v>
+        <v>24.55</v>
       </c>
       <c r="C196" s="2">
-        <v>8776699686</v>
+        <v>10626396501</v>
       </c>
       <c r="D196" s="3">
-        <v>491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4660,13 +4660,13 @@
         <v>199</v>
       </c>
       <c r="B197" s="2">
-        <v>58.09</v>
+        <v>66.72</v>
       </c>
       <c r="C197" s="2">
-        <v>44607868838</v>
+        <v>50909424851</v>
       </c>
       <c r="D197" s="3">
-        <v>170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4674,13 +4674,13 @@
         <v>200</v>
       </c>
       <c r="B198" s="2">
-        <v>72.64</v>
+        <v>85.34999999999999</v>
       </c>
       <c r="C198" s="2">
-        <v>25528134452</v>
+        <v>29990260382</v>
       </c>
       <c r="D198" s="3">
-        <v>136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4688,13 +4688,13 @@
         <v>201</v>
       </c>
       <c r="B199" s="2">
-        <v>260.04</v>
+        <v>275.21</v>
       </c>
       <c r="C199" s="2">
-        <v>70964099474</v>
+        <v>75402091392</v>
       </c>
       <c r="D199" s="3">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4702,13 +4702,13 @@
         <v>202</v>
       </c>
       <c r="B200" s="2">
-        <v>126.47</v>
+        <v>168.89</v>
       </c>
       <c r="C200" s="2">
-        <v>137648182858</v>
+        <v>184641885079</v>
       </c>
       <c r="D200" s="3">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4716,13 +4716,13 @@
         <v>203</v>
       </c>
       <c r="B201" s="2">
-        <v>83.37</v>
+        <v>73.69</v>
       </c>
       <c r="C201" s="2">
-        <v>103882512786</v>
+        <v>91801131453</v>
       </c>
       <c r="D201" s="3">
-        <v>118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4730,13 +4730,13 @@
         <v>204</v>
       </c>
       <c r="B202" s="2">
-        <v>66.52</v>
+        <v>66.76000000000001</v>
       </c>
       <c r="C202" s="2">
-        <v>37776049452</v>
+        <v>37913004000</v>
       </c>
       <c r="D202" s="3">
-        <v>148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4744,13 +4744,13 @@
         <v>205</v>
       </c>
       <c r="B203" s="2">
-        <v>121.99</v>
+        <v>116.03</v>
       </c>
       <c r="C203" s="2">
-        <v>11479390993</v>
+        <v>10872920443</v>
       </c>
       <c r="D203" s="3">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4758,13 +4758,13 @@
         <v>206</v>
       </c>
       <c r="B204" s="2">
-        <v>30.61</v>
+        <v>32.51</v>
       </c>
       <c r="C204" s="2">
-        <v>26115683046</v>
+        <v>27746450046</v>
       </c>
       <c r="D204" s="3">
-        <v>323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4772,13 +4772,13 @@
         <v>207</v>
       </c>
       <c r="B205" s="2">
-        <v>36.565</v>
+        <v>40.69</v>
       </c>
       <c r="C205" s="2">
-        <v>50075080297</v>
+        <v>46973890448</v>
       </c>
       <c r="D205" s="3">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4786,13 +4786,13 @@
         <v>208</v>
       </c>
       <c r="B206" s="2">
-        <v>139.3</v>
+        <v>142.17</v>
       </c>
       <c r="C206" s="2">
-        <v>1614616455251</v>
+        <v>1641749309987</v>
       </c>
       <c r="D206" s="3">
-        <v>71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4800,13 +4800,13 @@
         <v>209</v>
       </c>
       <c r="B207" s="2">
-        <v>137.91</v>
+        <v>141.18</v>
       </c>
       <c r="C207" s="2">
-        <v>1738907190000</v>
+        <v>1780138620000</v>
       </c>
       <c r="D207" s="3">
-        <v>71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4814,13 +4814,13 @@
         <v>210</v>
       </c>
       <c r="B208" s="2">
-        <v>139.255</v>
+        <v>153.66</v>
       </c>
       <c r="C208" s="2">
-        <v>19523081850</v>
+        <v>21423761536</v>
       </c>
       <c r="D208" s="3">
-        <v>71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4828,13 +4828,13 @@
         <v>211</v>
       </c>
       <c r="B209" s="2">
-        <v>127.49</v>
+        <v>129.88</v>
       </c>
       <c r="C209" s="2">
-        <v>33196935730</v>
+        <v>33130389796</v>
       </c>
       <c r="D209" s="3">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4842,13 +4842,13 @@
         <v>212</v>
       </c>
       <c r="B210" s="2">
-        <v>20.775</v>
+        <v>23.59</v>
       </c>
       <c r="C210" s="2">
-        <v>7704062722</v>
+        <v>8747958585</v>
       </c>
       <c r="D210" s="3">
-        <v>476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4856,13 +4856,13 @@
         <v>213</v>
       </c>
       <c r="B211" s="2">
-        <v>127.29</v>
+        <v>145.75</v>
       </c>
       <c r="C211" s="2">
-        <v>24354532791</v>
+        <v>27951558528</v>
       </c>
       <c r="D211" s="3">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4870,13 +4870,13 @@
         <v>214</v>
       </c>
       <c r="B212" s="2">
-        <v>387.51</v>
+        <v>387.21</v>
       </c>
       <c r="C212" s="2">
-        <v>126371840925</v>
+        <v>126061151266</v>
       </c>
       <c r="D212" s="3">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4884,13 +4884,13 @@
         <v>215</v>
       </c>
       <c r="B213" s="2">
-        <v>818.8200000000001</v>
+        <v>994.37</v>
       </c>
       <c r="C213" s="2">
-        <v>40641311880</v>
+        <v>48856588039</v>
       </c>
       <c r="D213" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4898,13 +4898,13 @@
         <v>216</v>
       </c>
       <c r="B214" s="2">
-        <v>36.465</v>
+        <v>37.73</v>
       </c>
       <c r="C214" s="2">
-        <v>32638061772</v>
+        <v>33583533406</v>
       </c>
       <c r="D214" s="3">
-        <v>271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4912,13 +4912,13 @@
         <v>217</v>
       </c>
       <c r="B215" s="2">
-        <v>51.12</v>
+        <v>53.31</v>
       </c>
       <c r="C215" s="2">
-        <v>7093623144</v>
+        <v>7398973799</v>
       </c>
       <c r="D215" s="3">
-        <v>193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4926,13 +4926,13 @@
         <v>218</v>
       </c>
       <c r="B216" s="2">
-        <v>12.895</v>
+        <v>13.05</v>
       </c>
       <c r="C216" s="2">
-        <v>18672928324</v>
+        <v>18922500000</v>
       </c>
       <c r="D216" s="3">
-        <v>767</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4940,13 +4940,13 @@
         <v>219</v>
       </c>
       <c r="B217" s="2">
-        <v>4.5</v>
+        <v>5.68</v>
       </c>
       <c r="C217" s="2">
-        <v>1575182349</v>
+        <v>1996844362</v>
       </c>
       <c r="D217" s="3">
-        <v>2200</v>
+        <v>3</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4954,13 +4954,13 @@
         <v>220</v>
       </c>
       <c r="B218" s="2">
-        <v>273.91</v>
+        <v>321.97</v>
       </c>
       <c r="C218" s="2">
-        <v>73314969728</v>
+        <v>85160646439</v>
       </c>
       <c r="D218" s="3">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4968,13 +4968,13 @@
         <v>221</v>
       </c>
       <c r="B219" s="2">
-        <v>345.99</v>
+        <v>373.23</v>
       </c>
       <c r="C219" s="2">
-        <v>344350645406</v>
+        <v>369876816957</v>
       </c>
       <c r="D219" s="3">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4982,13 +4982,13 @@
         <v>222</v>
       </c>
       <c r="B220" s="2">
-        <v>146.13</v>
+        <v>150.86</v>
       </c>
       <c r="C220" s="2">
-        <v>44884074998</v>
+        <v>46336960375</v>
       </c>
       <c r="D220" s="3">
-        <v>67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -5002,7 +5002,7 @@
         <v>5931624949</v>
       </c>
       <c r="D221" s="3">
-        <v>272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -5010,13 +5010,13 @@
         <v>224</v>
       </c>
       <c r="B222" s="2">
-        <v>81.29000000000001</v>
+        <v>99.06999999999999</v>
       </c>
       <c r="C222" s="2">
-        <v>24449579318</v>
+        <v>29458470444</v>
       </c>
       <c r="D222" s="3">
-        <v>121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5024,13 +5024,13 @@
         <v>225</v>
       </c>
       <c r="B223" s="2">
-        <v>260.57</v>
+        <v>289.02</v>
       </c>
       <c r="C223" s="2">
-        <v>10350740930</v>
+        <v>11442500357</v>
       </c>
       <c r="D223" s="3">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5038,13 +5038,13 @@
         <v>226</v>
       </c>
       <c r="B224" s="2">
-        <v>180.29</v>
+        <v>204.66</v>
       </c>
       <c r="C224" s="2">
-        <v>46233622588</v>
+        <v>51607171614</v>
       </c>
       <c r="D224" s="3">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5052,13 +5052,13 @@
         <v>227</v>
       </c>
       <c r="B225" s="2">
-        <v>72.44</v>
+        <v>75.91</v>
       </c>
       <c r="C225" s="2">
-        <v>17385802977</v>
+        <v>17818469759</v>
       </c>
       <c r="D225" s="3">
-        <v>136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5066,13 +5066,13 @@
         <v>228</v>
       </c>
       <c r="B226" s="2">
-        <v>209.78</v>
+        <v>197.69</v>
       </c>
       <c r="C226" s="2">
-        <v>138297600098</v>
+        <v>128929822414</v>
       </c>
       <c r="D226" s="3">
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5080,13 +5080,13 @@
         <v>229</v>
       </c>
       <c r="B227" s="2">
-        <v>16.895</v>
+        <v>16.73</v>
       </c>
       <c r="C227" s="2">
-        <v>21963500000</v>
+        <v>21749000000</v>
       </c>
       <c r="D227" s="3">
-        <v>586</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5094,13 +5094,13 @@
         <v>230</v>
       </c>
       <c r="B228" s="2">
-        <v>29.895</v>
+        <v>30.42</v>
       </c>
       <c r="C228" s="2">
-        <v>29623028713</v>
+        <v>29833866193</v>
       </c>
       <c r="D228" s="3">
-        <v>331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5108,13 +5108,13 @@
         <v>231</v>
       </c>
       <c r="B229" s="2">
-        <v>48.75</v>
+        <v>46.76</v>
       </c>
       <c r="C229" s="2">
-        <v>7016640345</v>
+        <v>6523986763</v>
       </c>
       <c r="D229" s="3">
-        <v>203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5122,13 +5122,13 @@
         <v>232</v>
       </c>
       <c r="B230" s="2">
-        <v>32.94</v>
+        <v>34.14</v>
       </c>
       <c r="C230" s="2">
-        <v>18011592000</v>
+        <v>18698478000</v>
       </c>
       <c r="D230" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5136,13 +5136,13 @@
         <v>233</v>
       </c>
       <c r="B231" s="2">
-        <v>76.03</v>
+        <v>74.58</v>
       </c>
       <c r="C231" s="2">
-        <v>9879212066</v>
+        <v>9583956523</v>
       </c>
       <c r="D231" s="3">
-        <v>130</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5150,13 +5150,13 @@
         <v>234</v>
       </c>
       <c r="B232" s="2">
-        <v>19.7</v>
+        <v>20.51</v>
       </c>
       <c r="C232" s="2">
-        <v>13896380000</v>
+        <v>14430836000</v>
       </c>
       <c r="D232" s="3">
-        <v>502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5164,13 +5164,13 @@
         <v>235</v>
       </c>
       <c r="B233" s="2">
-        <v>190.12</v>
+        <v>193.54</v>
       </c>
       <c r="C233" s="2">
-        <v>38989809600</v>
+        <v>39691183200</v>
       </c>
       <c r="D233" s="3">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5178,13 +5178,13 @@
         <v>236</v>
       </c>
       <c r="B234" s="2">
-        <v>466.95</v>
+        <v>348.15</v>
       </c>
       <c r="C234" s="2">
-        <v>57486550704</v>
+        <v>42005451617</v>
       </c>
       <c r="D234" s="3">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5192,13 +5192,13 @@
         <v>237</v>
       </c>
       <c r="B235" s="2">
-        <v>53.73</v>
+        <v>66.23999999999999</v>
       </c>
       <c r="C235" s="2">
-        <v>22123024140</v>
+        <v>27178513842</v>
       </c>
       <c r="D235" s="3">
-        <v>184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5206,13 +5206,13 @@
         <v>238</v>
       </c>
       <c r="B236" s="2">
-        <v>162.02</v>
+        <v>191.07</v>
       </c>
       <c r="C236" s="2">
-        <v>147943472494</v>
+        <v>175162438107</v>
       </c>
       <c r="D236" s="3">
-        <v>61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5220,13 +5220,13 @@
         <v>239</v>
       </c>
       <c r="B237" s="2">
-        <v>126.9</v>
+        <v>134.64</v>
       </c>
       <c r="C237" s="2">
-        <v>70937100000</v>
+        <v>77097075462</v>
       </c>
       <c r="D237" s="3">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5234,13 +5234,13 @@
         <v>240</v>
       </c>
       <c r="B238" s="2">
-        <v>548.5700000000001</v>
+        <v>529.77</v>
       </c>
       <c r="C238" s="2">
-        <v>45559672166</v>
+        <v>44018261372</v>
       </c>
       <c r="D238" s="3">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5248,13 +5248,13 @@
         <v>241</v>
       </c>
       <c r="B239" s="2">
-        <v>216.55</v>
+        <v>239.97</v>
       </c>
       <c r="C239" s="2">
-        <v>16376710470</v>
+        <v>18152447620</v>
       </c>
       <c r="D239" s="3">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5262,13 +5262,13 @@
         <v>242</v>
       </c>
       <c r="B240" s="2">
-        <v>81.08</v>
+        <v>82.84999999999999</v>
       </c>
       <c r="C240" s="2">
-        <v>20698032185</v>
+        <v>21152840211</v>
       </c>
       <c r="D240" s="3">
-        <v>122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5276,13 +5276,13 @@
         <v>243</v>
       </c>
       <c r="B241" s="2">
-        <v>139.01</v>
+        <v>127.73</v>
       </c>
       <c r="C241" s="2">
-        <v>22074788000</v>
+        <v>20296297000</v>
       </c>
       <c r="D241" s="3">
-        <v>71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5290,13 +5290,13 @@
         <v>244</v>
       </c>
       <c r="B242" s="2">
-        <v>65.12</v>
+        <v>58.37</v>
       </c>
       <c r="C242" s="2">
-        <v>14593993579</v>
+        <v>13105590091</v>
       </c>
       <c r="D242" s="3">
-        <v>152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5310,7 +5310,7 @@
         <v>45801486922</v>
       </c>
       <c r="D243" s="3">
-        <v>91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5318,13 +5318,13 @@
         <v>246</v>
       </c>
       <c r="B244" s="2">
-        <v>48.37</v>
+        <v>42.64</v>
       </c>
       <c r="C244" s="2">
-        <v>203927920000</v>
+        <v>180281920000</v>
       </c>
       <c r="D244" s="3">
-        <v>204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5332,13 +5332,13 @@
         <v>247</v>
       </c>
       <c r="B245" s="2">
-        <v>602.96</v>
+        <v>625.52</v>
       </c>
       <c r="C245" s="2">
-        <v>168768504000</v>
+        <v>175145600000</v>
       </c>
       <c r="D245" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5346,13 +5346,13 @@
         <v>248</v>
       </c>
       <c r="B246" s="2">
-        <v>36.82</v>
+        <v>36.35</v>
       </c>
       <c r="C246" s="2">
-        <v>12740357465</v>
+        <v>12589961502</v>
       </c>
       <c r="D246" s="3">
-        <v>268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5360,13 +5360,13 @@
         <v>249</v>
       </c>
       <c r="B247" s="2">
-        <v>33.045</v>
+        <v>32.39</v>
       </c>
       <c r="C247" s="2">
-        <v>12656371509</v>
+        <v>12266910426</v>
       </c>
       <c r="D247" s="3">
-        <v>299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5374,13 +5374,13 @@
         <v>250</v>
       </c>
       <c r="B248" s="2">
-        <v>107.39</v>
+        <v>87.23999999999999</v>
       </c>
       <c r="C248" s="2">
-        <v>5039002335</v>
+        <v>4021601123</v>
       </c>
       <c r="D248" s="3">
-        <v>92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5388,13 +5388,13 @@
         <v>251</v>
       </c>
       <c r="B249" s="2">
-        <v>231.78</v>
+        <v>252.71</v>
       </c>
       <c r="C249" s="2">
-        <v>42299850000</v>
+        <v>45866865000</v>
       </c>
       <c r="D249" s="3">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5402,13 +5402,13 @@
         <v>252</v>
       </c>
       <c r="B250" s="2">
-        <v>76.90000000000001</v>
+        <v>90.47</v>
       </c>
       <c r="C250" s="2">
-        <v>31128887454</v>
+        <v>36498853563</v>
       </c>
       <c r="D250" s="3">
-        <v>128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5416,13 +5416,13 @@
         <v>253</v>
       </c>
       <c r="B251" s="2">
-        <v>69.38</v>
+        <v>78.61</v>
       </c>
       <c r="C251" s="2">
-        <v>20258236228</v>
+        <v>22975790261</v>
       </c>
       <c r="D251" s="3">
-        <v>142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5430,13 +5430,13 @@
         <v>254</v>
       </c>
       <c r="B252" s="2">
-        <v>333.475</v>
+        <v>396.28</v>
       </c>
       <c r="C252" s="2">
-        <v>117407074142</v>
+        <v>140460944706</v>
       </c>
       <c r="D252" s="3">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5444,13 +5444,13 @@
         <v>255</v>
       </c>
       <c r="B253" s="2">
-        <v>438</v>
+        <v>470.97</v>
       </c>
       <c r="C253" s="2">
-        <v>34120200000</v>
+        <v>36735660000</v>
       </c>
       <c r="D253" s="3">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5458,13 +5458,13 @@
         <v>256</v>
       </c>
       <c r="B254" s="2">
-        <v>261.605</v>
+        <v>266.92</v>
       </c>
       <c r="C254" s="2">
-        <v>78713250637</v>
+        <v>79755696000</v>
       </c>
       <c r="D254" s="3">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5472,13 +5472,13 @@
         <v>257</v>
       </c>
       <c r="B255" s="2">
-        <v>17.79</v>
+        <v>15.43</v>
       </c>
       <c r="C255" s="2">
-        <v>7997572758</v>
+        <v>6931221855</v>
       </c>
       <c r="D255" s="3">
-        <v>556</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5486,13 +5486,13 @@
         <v>258</v>
       </c>
       <c r="B256" s="2">
-        <v>128.68</v>
+        <v>148.97</v>
       </c>
       <c r="C256" s="2">
-        <v>16254404389</v>
+        <v>18718226044</v>
       </c>
       <c r="D256" s="3">
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5500,13 +5500,13 @@
         <v>259</v>
       </c>
       <c r="B257" s="2">
-        <v>196.89</v>
+        <v>193.92</v>
       </c>
       <c r="C257" s="2">
-        <v>20307786876</v>
+        <v>20031637751</v>
       </c>
       <c r="D257" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5514,13 +5514,13 @@
         <v>260</v>
       </c>
       <c r="B258" s="2">
-        <v>57.3</v>
+        <v>63.19</v>
       </c>
       <c r="C258" s="2">
-        <v>39002610975</v>
+        <v>43062534537</v>
       </c>
       <c r="D258" s="3">
-        <v>172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5528,13 +5528,13 @@
         <v>261</v>
       </c>
       <c r="B259" s="2">
-        <v>164.8</v>
+        <v>170.95</v>
       </c>
       <c r="C259" s="2">
-        <v>11997440000</v>
+        <v>12456729554</v>
       </c>
       <c r="D259" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5542,13 +5542,13 @@
         <v>262</v>
       </c>
       <c r="B260" s="2">
-        <v>159.94</v>
+        <v>158.18</v>
       </c>
       <c r="C260" s="2">
-        <v>385020142483</v>
+        <v>381179483482</v>
       </c>
       <c r="D260" s="3">
-        <v>61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5556,13 +5556,13 @@
         <v>263</v>
       </c>
       <c r="B261" s="2">
-        <v>29.295</v>
+        <v>36.22</v>
       </c>
       <c r="C261" s="2">
-        <v>9341252092</v>
+        <v>11659218000</v>
       </c>
       <c r="D261" s="3">
-        <v>337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5570,13 +5570,13 @@
         <v>264</v>
       </c>
       <c r="B262" s="2">
-        <v>171.04</v>
+        <v>190.3</v>
       </c>
       <c r="C262" s="2">
-        <v>494478066645</v>
+        <v>548134696069</v>
       </c>
       <c r="D262" s="3">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5584,13 +5584,13 @@
         <v>265</v>
       </c>
       <c r="B263" s="2">
-        <v>57.665</v>
+        <v>53.56</v>
       </c>
       <c r="C263" s="2">
-        <v>19612443150</v>
+        <v>18216291600</v>
       </c>
       <c r="D263" s="3">
-        <v>171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5598,13 +5598,13 @@
         <v>266</v>
       </c>
       <c r="B264" s="2">
-        <v>14.69</v>
+        <v>14.48</v>
       </c>
       <c r="C264" s="2">
-        <v>13753663234</v>
+        <v>13522027700</v>
       </c>
       <c r="D264" s="3">
-        <v>673</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5612,13 +5612,13 @@
         <v>267</v>
       </c>
       <c r="B265" s="2">
-        <v>156.44</v>
+        <v>149.8</v>
       </c>
       <c r="C265" s="2">
-        <v>27383977850</v>
+        <v>26148465132</v>
       </c>
       <c r="D265" s="3">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5626,13 +5626,13 @@
         <v>268</v>
       </c>
       <c r="B266" s="2">
-        <v>38.055</v>
+        <v>34.37</v>
       </c>
       <c r="C266" s="2">
-        <v>46675930000</v>
+        <v>41694239679</v>
       </c>
       <c r="D266" s="3">
-        <v>260</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5640,13 +5640,13 @@
         <v>269</v>
       </c>
       <c r="B267" s="2">
-        <v>21.51</v>
+        <v>18.88</v>
       </c>
       <c r="C267" s="2">
-        <v>13333493397</v>
+        <v>12704436582</v>
       </c>
       <c r="D267" s="3">
-        <v>460</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5654,13 +5654,13 @@
         <v>270</v>
       </c>
       <c r="B268" s="2">
-        <v>565.765</v>
+        <v>683.9</v>
       </c>
       <c r="C268" s="2">
-        <v>76905746762</v>
+        <v>92486293919</v>
       </c>
       <c r="D268" s="3">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5668,13 +5668,13 @@
         <v>271</v>
       </c>
       <c r="B269" s="2">
-        <v>122.19</v>
+        <v>124.47</v>
       </c>
       <c r="C269" s="2">
-        <v>41292888600</v>
+        <v>41935731634</v>
       </c>
       <c r="D269" s="3">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5682,13 +5682,13 @@
         <v>272</v>
       </c>
       <c r="B270" s="2">
-        <v>17.805</v>
+        <v>17.6</v>
       </c>
       <c r="C270" s="2">
-        <v>39576489877</v>
+        <v>39060911472</v>
       </c>
       <c r="D270" s="3">
-        <v>556</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5696,13 +5696,13 @@
         <v>273</v>
       </c>
       <c r="B271" s="2">
-        <v>76.98999999999999</v>
+        <v>80.73999999999999</v>
       </c>
       <c r="C271" s="2">
-        <v>12218313000</v>
+        <v>12748846000</v>
       </c>
       <c r="D271" s="3">
-        <v>128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5710,13 +5710,13 @@
         <v>274</v>
       </c>
       <c r="B272" s="2">
-        <v>59.55</v>
+        <v>59.88</v>
       </c>
       <c r="C272" s="2">
-        <v>257459303700</v>
+        <v>258229875340</v>
       </c>
       <c r="D272" s="3">
-        <v>166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5724,13 +5724,13 @@
         <v>275</v>
       </c>
       <c r="B273" s="2">
-        <v>46.235</v>
+        <v>56.06</v>
       </c>
       <c r="C273" s="2">
-        <v>33262543072</v>
+        <v>40330878439</v>
       </c>
       <c r="D273" s="3">
-        <v>214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5738,13 +5738,13 @@
         <v>276</v>
       </c>
       <c r="B274" s="2">
-        <v>28.685</v>
+        <v>24.81</v>
       </c>
       <c r="C274" s="2">
-        <v>3175777277</v>
+        <v>2746767796</v>
       </c>
       <c r="D274" s="3">
-        <v>345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5758,7 +5758,7 @@
         <v>26710947380</v>
       </c>
       <c r="D275" s="3">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5766,13 +5766,13 @@
         <v>278</v>
       </c>
       <c r="B276" s="2">
-        <v>70.185</v>
+        <v>76.97</v>
       </c>
       <c r="C276" s="2">
-        <v>15668871435</v>
+        <v>17102821669</v>
       </c>
       <c r="D276" s="3">
-        <v>141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5786,7 +5786,7 @@
         <v>21957908112</v>
       </c>
       <c r="D277" s="3">
-        <v>123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5794,13 +5794,13 @@
         <v>280</v>
       </c>
       <c r="B278" s="2">
-        <v>108.01</v>
+        <v>127.92</v>
       </c>
       <c r="C278" s="2">
-        <v>14852069288</v>
+        <v>17286361491</v>
       </c>
       <c r="D278" s="3">
-        <v>91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5808,13 +5808,13 @@
         <v>281</v>
       </c>
       <c r="B279" s="2">
-        <v>26.66</v>
+        <v>18.64</v>
       </c>
       <c r="C279" s="2">
-        <v>3554295897</v>
+        <v>2492728859</v>
       </c>
       <c r="D279" s="3">
-        <v>371</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5822,13 +5822,13 @@
         <v>282</v>
       </c>
       <c r="B280" s="2">
-        <v>147.6</v>
+        <v>156.57</v>
       </c>
       <c r="C280" s="2">
-        <v>41463040568</v>
+        <v>43146342329</v>
       </c>
       <c r="D280" s="3">
-        <v>67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5836,13 +5836,13 @@
         <v>283</v>
       </c>
       <c r="B281" s="2">
-        <v>232.135</v>
+        <v>209.21</v>
       </c>
       <c r="C281" s="2">
-        <v>19708261500</v>
+        <v>17594561000</v>
       </c>
       <c r="D281" s="3">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5850,13 +5850,13 @@
         <v>284</v>
       </c>
       <c r="B282" s="2">
-        <v>212.25</v>
+        <v>212.86</v>
       </c>
       <c r="C282" s="2">
-        <v>40229917850</v>
+        <v>40462451396</v>
       </c>
       <c r="D282" s="3">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5864,13 +5864,13 @@
         <v>285</v>
       </c>
       <c r="B283" s="2">
-        <v>407.8</v>
+        <v>468.23</v>
       </c>
       <c r="C283" s="2">
-        <v>197738340191</v>
+        <v>225488551485</v>
       </c>
       <c r="D283" s="3">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5878,13 +5878,13 @@
         <v>286</v>
       </c>
       <c r="B284" s="2">
-        <v>47.87</v>
+        <v>51.51</v>
       </c>
       <c r="C284" s="2">
-        <v>12809931531</v>
+        <v>13741623982</v>
       </c>
       <c r="D284" s="3">
-        <v>206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5892,13 +5892,13 @@
         <v>287</v>
       </c>
       <c r="B285" s="2">
-        <v>587.975</v>
+        <v>754.17</v>
       </c>
       <c r="C285" s="2">
-        <v>558168922675</v>
+        <v>716585524765</v>
       </c>
       <c r="D285" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5906,13 +5906,13 @@
         <v>288</v>
       </c>
       <c r="B286" s="2">
-        <v>458.36</v>
+        <v>435.82</v>
       </c>
       <c r="C286" s="2">
-        <v>113718527007</v>
+        <v>105312984749</v>
       </c>
       <c r="D286" s="3">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5920,13 +5920,13 @@
         <v>289</v>
       </c>
       <c r="B287" s="2">
-        <v>27.47</v>
+        <v>27.09</v>
       </c>
       <c r="C287" s="2">
-        <v>4660611624</v>
+        <v>4596327250</v>
       </c>
       <c r="D287" s="3">
-        <v>360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5934,13 +5934,13 @@
         <v>290</v>
       </c>
       <c r="B288" s="2">
-        <v>51.59</v>
+        <v>48.39</v>
       </c>
       <c r="C288" s="2">
-        <v>13164689098</v>
+        <v>12392693178</v>
       </c>
       <c r="D288" s="3">
-        <v>191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5948,13 +5948,13 @@
         <v>291</v>
       </c>
       <c r="B289" s="2">
-        <v>220.41</v>
+        <v>244.73</v>
       </c>
       <c r="C289" s="2">
-        <v>126760568166</v>
+        <v>140744223000</v>
       </c>
       <c r="D289" s="3">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5962,13 +5962,13 @@
         <v>292</v>
       </c>
       <c r="B290" s="2">
-        <v>758.59</v>
+        <v>910.09</v>
       </c>
       <c r="C290" s="2">
-        <v>99976093280</v>
+        <v>119315529270</v>
       </c>
       <c r="D290" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5976,13 +5976,13 @@
         <v>293</v>
       </c>
       <c r="B291" s="2">
-        <v>28.975</v>
+        <v>28.35</v>
       </c>
       <c r="C291" s="2">
-        <v>17272443136</v>
+        <v>16915439227</v>
       </c>
       <c r="D291" s="3">
-        <v>341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5990,13 +5990,13 @@
         <v>294</v>
       </c>
       <c r="B292" s="2">
-        <v>51.275</v>
+        <v>51.03</v>
       </c>
       <c r="C292" s="2">
-        <v>38925539207</v>
+        <v>38457301471</v>
       </c>
       <c r="D292" s="3">
-        <v>193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -6004,13 +6004,13 @@
         <v>295</v>
       </c>
       <c r="B293" s="2">
-        <v>107.51</v>
+        <v>102.06</v>
       </c>
       <c r="C293" s="2">
-        <v>15581107253</v>
+        <v>14734657146</v>
       </c>
       <c r="D293" s="3">
-        <v>92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -6018,13 +6018,13 @@
         <v>296</v>
       </c>
       <c r="B294" s="2">
-        <v>96.63</v>
+        <v>99.91</v>
       </c>
       <c r="C294" s="2">
-        <v>31343078125</v>
+        <v>32423106917</v>
       </c>
       <c r="D294" s="3">
-        <v>102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -6032,13 +6032,13 @@
         <v>297</v>
       </c>
       <c r="B295" s="2">
-        <v>92.34</v>
+        <v>103.77</v>
       </c>
       <c r="C295" s="2">
-        <v>21265902000</v>
+        <v>23950116000</v>
       </c>
       <c r="D295" s="3">
-        <v>107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -6046,13 +6046,13 @@
         <v>298</v>
       </c>
       <c r="B296" s="2">
-        <v>422.1</v>
+        <v>475.83</v>
       </c>
       <c r="C296" s="2">
-        <v>392737879800</v>
+        <v>440486837424</v>
       </c>
       <c r="D296" s="3">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -6060,13 +6060,13 @@
         <v>299</v>
       </c>
       <c r="B297" s="2">
-        <v>135.81</v>
+        <v>130.34</v>
       </c>
       <c r="C297" s="2">
-        <v>15847329511</v>
+        <v>15212715605</v>
       </c>
       <c r="D297" s="3">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -6074,13 +6074,13 @@
         <v>300</v>
       </c>
       <c r="B298" s="2">
-        <v>223.41</v>
+        <v>244.07</v>
       </c>
       <c r="C298" s="2">
-        <v>65613584057</v>
+        <v>72879302000</v>
       </c>
       <c r="D298" s="3">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6088,13 +6088,13 @@
         <v>301</v>
       </c>
       <c r="B299" s="2">
-        <v>67.03</v>
+        <v>74.16</v>
       </c>
       <c r="C299" s="2">
-        <v>15048296064</v>
+        <v>16297767580</v>
       </c>
       <c r="D299" s="3">
-        <v>147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6102,13 +6102,13 @@
         <v>302</v>
       </c>
       <c r="B300" s="2">
-        <v>296.48</v>
+        <v>279.14</v>
       </c>
       <c r="C300" s="2">
-        <v>215049405054</v>
+        <v>201553452360</v>
       </c>
       <c r="D300" s="3">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6116,13 +6116,13 @@
         <v>303</v>
       </c>
       <c r="B301" s="2">
-        <v>88.53</v>
+        <v>88.64</v>
       </c>
       <c r="C301" s="2">
-        <v>47898740232</v>
+        <v>47901056000</v>
       </c>
       <c r="D301" s="3">
-        <v>111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6130,13 +6130,13 @@
         <v>304</v>
       </c>
       <c r="B302" s="2">
-        <v>469.105</v>
+        <v>533.64</v>
       </c>
       <c r="C302" s="2">
-        <v>62420277026</v>
+        <v>70124717741</v>
       </c>
       <c r="D302" s="3">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6144,13 +6144,13 @@
         <v>305</v>
       </c>
       <c r="B303" s="2">
-        <v>383.03</v>
+        <v>384.16</v>
       </c>
       <c r="C303" s="2">
-        <v>70094490000</v>
+        <v>70109200000</v>
       </c>
       <c r="D303" s="3">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6158,13 +6158,13 @@
         <v>306</v>
       </c>
       <c r="B304" s="2">
-        <v>73.675</v>
+        <v>70.75</v>
       </c>
       <c r="C304" s="2">
-        <v>100263982225</v>
+        <v>96283362639</v>
       </c>
       <c r="D304" s="3">
-        <v>134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6172,13 +6172,13 @@
         <v>307</v>
       </c>
       <c r="B305" s="2">
-        <v>83.09999999999999</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="C305" s="2">
-        <v>110494273244</v>
+        <v>110966129584</v>
       </c>
       <c r="D305" s="3">
-        <v>119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6186,13 +6186,13 @@
         <v>308</v>
       </c>
       <c r="B306" s="2">
-        <v>67.34999999999999</v>
+        <v>72.39</v>
       </c>
       <c r="C306" s="2">
-        <v>49851811923</v>
+        <v>52339440458</v>
       </c>
       <c r="D306" s="3">
-        <v>147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6200,13 +6200,13 @@
         <v>309</v>
       </c>
       <c r="B307" s="2">
-        <v>45.685</v>
+        <v>42.88</v>
       </c>
       <c r="C307" s="2">
-        <v>15605236761</v>
+        <v>13593632358</v>
       </c>
       <c r="D307" s="3">
-        <v>216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6214,13 +6214,13 @@
         <v>310</v>
       </c>
       <c r="B308" s="2">
-        <v>105.21</v>
+        <v>117.83</v>
       </c>
       <c r="C308" s="2">
-        <v>6699772800</v>
+        <v>7505771000</v>
       </c>
       <c r="D308" s="3">
-        <v>94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6228,13 +6228,13 @@
         <v>311</v>
       </c>
       <c r="B309" s="2">
-        <v>69.92</v>
+        <v>68.17</v>
       </c>
       <c r="C309" s="2">
-        <v>18754447502</v>
+        <v>18265907929</v>
       </c>
       <c r="D309" s="3">
-        <v>141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6242,13 +6242,13 @@
         <v>312</v>
       </c>
       <c r="B310" s="2">
-        <v>286.13</v>
+        <v>218.45</v>
       </c>
       <c r="C310" s="2">
-        <v>10845885836</v>
+        <v>8272208458</v>
       </c>
       <c r="D310" s="3">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6256,13 +6256,13 @@
         <v>313</v>
       </c>
       <c r="B311" s="2">
-        <v>492.255</v>
+        <v>596.27</v>
       </c>
       <c r="C311" s="2">
-        <v>30424884038</v>
+        <v>36862881206</v>
       </c>
       <c r="D311" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6270,13 +6270,13 @@
         <v>314</v>
       </c>
       <c r="B312" s="2">
-        <v>189.09</v>
+        <v>206.34</v>
       </c>
       <c r="C312" s="2">
-        <v>93235067491</v>
+        <v>101448339483</v>
       </c>
       <c r="D312" s="3">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6284,13 +6284,13 @@
         <v>315</v>
       </c>
       <c r="B313" s="2">
-        <v>110.36</v>
+        <v>105</v>
       </c>
       <c r="C313" s="2">
-        <v>60953708314</v>
+        <v>58033500000</v>
       </c>
       <c r="D313" s="3">
-        <v>89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6298,13 +6298,13 @@
         <v>316</v>
       </c>
       <c r="B314" s="2">
-        <v>58.575</v>
+        <v>60.45</v>
       </c>
       <c r="C314" s="2">
-        <v>60943851959</v>
+        <v>62906460406</v>
       </c>
       <c r="D314" s="3">
-        <v>169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6312,13 +6312,13 @@
         <v>317</v>
       </c>
       <c r="B315" s="2">
-        <v>41.425</v>
+        <v>43.87</v>
       </c>
       <c r="C315" s="2">
-        <v>73266188470</v>
+        <v>77363068069</v>
       </c>
       <c r="D315" s="3">
-        <v>239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6326,13 +6326,13 @@
         <v>318</v>
       </c>
       <c r="B316" s="2">
-        <v>36.86</v>
+        <v>32.1</v>
       </c>
       <c r="C316" s="2">
-        <v>12047154871</v>
+        <v>10326214910</v>
       </c>
       <c r="D316" s="3">
-        <v>268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6340,13 +6340,13 @@
         <v>319</v>
       </c>
       <c r="B317" s="2">
-        <v>151.59</v>
+        <v>193.84</v>
       </c>
       <c r="C317" s="2">
-        <v>57558310220</v>
+        <v>69847547492</v>
       </c>
       <c r="D317" s="3">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6354,13 +6354,13 @@
         <v>320</v>
       </c>
       <c r="B318" s="2">
-        <v>112.91</v>
+        <v>121.52</v>
       </c>
       <c r="C318" s="2">
-        <v>286116546414</v>
+        <v>307766883325</v>
       </c>
       <c r="D318" s="3">
-        <v>87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6368,13 +6368,13 @@
         <v>321</v>
       </c>
       <c r="B319" s="2">
-        <v>24.595</v>
+        <v>26.51</v>
       </c>
       <c r="C319" s="2">
-        <v>14394158770</v>
+        <v>15301502252</v>
       </c>
       <c r="D319" s="3">
-        <v>402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6382,13 +6382,13 @@
         <v>322</v>
       </c>
       <c r="B320" s="2">
-        <v>93.95</v>
+        <v>88.38</v>
       </c>
       <c r="C320" s="2">
-        <v>154201222941</v>
+        <v>144525012089</v>
       </c>
       <c r="D320" s="3">
-        <v>105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6396,13 +6396,13 @@
         <v>323</v>
       </c>
       <c r="B321" s="2">
-        <v>554.1849999999999</v>
+        <v>544.74</v>
       </c>
       <c r="C321" s="2">
-        <v>43831151130</v>
+        <v>43156243164</v>
       </c>
       <c r="D321" s="3">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6410,13 +6410,13 @@
         <v>324</v>
       </c>
       <c r="B322" s="2">
-        <v>370.8</v>
+        <v>416.42</v>
       </c>
       <c r="C322" s="2">
-        <v>2755882871593</v>
+        <v>3094182254480</v>
       </c>
       <c r="D322" s="3">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6424,13 +6424,13 @@
         <v>325</v>
       </c>
       <c r="B323" s="2">
-        <v>312.18</v>
+        <v>344.19</v>
       </c>
       <c r="C323" s="2">
-        <v>51821880000</v>
+        <v>57169959000</v>
       </c>
       <c r="D323" s="3">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6438,13 +6438,13 @@
         <v>326</v>
       </c>
       <c r="B324" s="2">
-        <v>139.115</v>
+        <v>140.53</v>
       </c>
       <c r="C324" s="2">
-        <v>23087571725</v>
+        <v>23415246882</v>
       </c>
       <c r="D324" s="3">
-        <v>71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6452,13 +6452,13 @@
         <v>327</v>
       </c>
       <c r="B325" s="2">
-        <v>1224.87</v>
+        <v>1324.45</v>
       </c>
       <c r="C325" s="2">
-        <v>26559838556</v>
+        <v>28447470837</v>
       </c>
       <c r="D325" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6466,13 +6466,13 @@
         <v>328</v>
       </c>
       <c r="B326" s="2">
-        <v>83.31999999999999</v>
+        <v>93.25</v>
       </c>
       <c r="C326" s="2">
-        <v>91235400000</v>
+        <v>102939503060</v>
       </c>
       <c r="D326" s="3">
-        <v>118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6486,7 +6486,7 @@
         <v>27699922819</v>
       </c>
       <c r="D327" s="3">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6500,7 +6500,7 @@
         <v>8586211830</v>
       </c>
       <c r="D328" s="3">
-        <v>624</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6514,7 +6514,7 @@
         <v>4095292500</v>
       </c>
       <c r="D329" s="3">
-        <v>1171</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6522,13 +6522,13 @@
         <v>332</v>
       </c>
       <c r="B330" s="2">
-        <v>18.83</v>
+        <v>19.4</v>
       </c>
       <c r="C330" s="2">
-        <v>8010751507</v>
+        <v>8257754879</v>
       </c>
       <c r="D330" s="3">
-        <v>525</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6536,13 +6536,13 @@
         <v>333</v>
       </c>
       <c r="B331" s="2">
-        <v>57.205</v>
+        <v>59.68</v>
       </c>
       <c r="C331" s="2">
-        <v>33005258227</v>
+        <v>34328328098</v>
       </c>
       <c r="D331" s="3">
-        <v>173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6550,13 +6550,13 @@
         <v>334</v>
       </c>
       <c r="B332" s="2">
-        <v>61.78</v>
+        <v>60.08</v>
       </c>
       <c r="C332" s="2">
-        <v>126754504239</v>
+        <v>123309943572</v>
       </c>
       <c r="D332" s="3">
-        <v>160</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6564,13 +6564,13 @@
         <v>335</v>
       </c>
       <c r="B333" s="2">
-        <v>41.17</v>
+        <v>33.88</v>
       </c>
       <c r="C333" s="2">
-        <v>32721923946</v>
+        <v>39056422306</v>
       </c>
       <c r="D333" s="3">
-        <v>240</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6578,13 +6578,13 @@
         <v>336</v>
       </c>
       <c r="B334" s="2">
-        <v>471.84</v>
+        <v>605.88</v>
       </c>
       <c r="C334" s="2">
-        <v>208456556575</v>
+        <v>267674759447</v>
       </c>
       <c r="D334" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6592,13 +6592,13 @@
         <v>337</v>
       </c>
       <c r="B335" s="2">
-        <v>26.9</v>
+        <v>26.5</v>
       </c>
       <c r="C335" s="2">
-        <v>11120875363</v>
+        <v>11859400019</v>
       </c>
       <c r="D335" s="3">
-        <v>368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6606,13 +6606,13 @@
         <v>338</v>
       </c>
       <c r="B336" s="2">
-        <v>107.2</v>
+        <v>99.64</v>
       </c>
       <c r="C336" s="2">
-        <v>167232000000</v>
+        <v>155438400000</v>
       </c>
       <c r="D336" s="3">
-        <v>92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6626,7 +6626,7 @@
         <v>12352934758</v>
       </c>
       <c r="D337" s="3">
-        <v>457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6640,7 +6640,7 @@
         <v>10068164861</v>
       </c>
       <c r="D338" s="3">
-        <v>353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6648,13 +6648,13 @@
         <v>341</v>
       </c>
       <c r="B339" s="2">
-        <v>472.16</v>
+        <v>461.75</v>
       </c>
       <c r="C339" s="2">
-        <v>71198236377</v>
+        <v>69278986784</v>
       </c>
       <c r="D339" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6662,13 +6662,13 @@
         <v>342</v>
       </c>
       <c r="B340" s="2">
-        <v>20.495</v>
+        <v>18.56</v>
       </c>
       <c r="C340" s="2">
-        <v>8073533783</v>
+        <v>7310784000</v>
       </c>
       <c r="D340" s="3">
-        <v>483</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6676,13 +6676,13 @@
         <v>343</v>
       </c>
       <c r="B341" s="2">
-        <v>685.915</v>
+        <v>743.91</v>
       </c>
       <c r="C341" s="2">
-        <v>140612575000</v>
+        <v>152501550000</v>
       </c>
       <c r="D341" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6690,13 +6690,13 @@
         <v>344</v>
       </c>
       <c r="B342" s="2">
-        <v>51.21</v>
+        <v>63.93</v>
       </c>
       <c r="C342" s="2">
-        <v>11561396768</v>
+        <v>13298783297</v>
       </c>
       <c r="D342" s="3">
-        <v>193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6704,13 +6704,13 @@
         <v>345</v>
       </c>
       <c r="B343" s="2">
-        <v>236.99</v>
+        <v>255.83</v>
       </c>
       <c r="C343" s="2">
-        <v>53498684977</v>
+        <v>57787266192</v>
       </c>
       <c r="D343" s="3">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6718,13 +6718,13 @@
         <v>346</v>
       </c>
       <c r="B344" s="2">
-        <v>86.31999999999999</v>
+        <v>102.35</v>
       </c>
       <c r="C344" s="2">
-        <v>17784599977</v>
+        <v>21122651253</v>
       </c>
       <c r="D344" s="3">
-        <v>114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6732,13 +6732,13 @@
         <v>347</v>
       </c>
       <c r="B345" s="2">
-        <v>85.14</v>
+        <v>81.45999999999999</v>
       </c>
       <c r="C345" s="2">
-        <v>17627076542</v>
+        <v>16619391813</v>
       </c>
       <c r="D345" s="3">
-        <v>116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6746,13 +6746,13 @@
         <v>348</v>
       </c>
       <c r="B346" s="2">
-        <v>174.755</v>
+        <v>188.48</v>
       </c>
       <c r="C346" s="2">
-        <v>42961594270</v>
+        <v>45375624574</v>
       </c>
       <c r="D346" s="3">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6760,13 +6760,13 @@
         <v>349</v>
       </c>
       <c r="B347" s="2">
-        <v>481.57</v>
+        <v>878.365</v>
       </c>
       <c r="C347" s="2">
-        <v>1189477900000</v>
+        <v>2195912500000</v>
       </c>
       <c r="D347" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6774,13 +6774,13 @@
         <v>350</v>
       </c>
       <c r="B348" s="2">
-        <v>6914.93</v>
+        <v>7565.87</v>
       </c>
       <c r="C348" s="2">
-        <v>22023754708</v>
+        <v>24105974003</v>
       </c>
       <c r="D348" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6788,13 +6788,13 @@
         <v>351</v>
       </c>
       <c r="B349" s="2">
-        <v>8.890000000000001</v>
+        <v>8.18</v>
       </c>
       <c r="C349" s="2">
-        <v>3682238000</v>
+        <v>3388974000</v>
       </c>
       <c r="D349" s="3">
-        <v>1113</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6802,13 +6802,13 @@
         <v>352</v>
       </c>
       <c r="B350" s="2">
-        <v>25.57</v>
+        <v>26.44</v>
       </c>
       <c r="C350" s="2">
-        <v>14184644702</v>
+        <v>14746967798</v>
       </c>
       <c r="D350" s="3">
-        <v>387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6816,13 +6816,13 @@
         <v>353</v>
       </c>
       <c r="B351" s="2">
-        <v>24.37</v>
+        <v>25.51</v>
       </c>
       <c r="C351" s="2">
-        <v>14163243816</v>
+        <v>14746967789</v>
       </c>
       <c r="D351" s="3">
-        <v>406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6830,13 +6830,13 @@
         <v>354</v>
       </c>
       <c r="B352" s="2">
-        <v>58.3</v>
+        <v>52.19</v>
       </c>
       <c r="C352" s="2">
-        <v>42204748445</v>
+        <v>44942048878</v>
       </c>
       <c r="D352" s="3">
-        <v>169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6844,13 +6844,13 @@
         <v>355</v>
       </c>
       <c r="B353" s="2">
-        <v>399.31</v>
+        <v>421.11</v>
       </c>
       <c r="C353" s="2">
-        <v>43570173179</v>
+        <v>45832410552</v>
       </c>
       <c r="D353" s="3">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6858,13 +6858,13 @@
         <v>356</v>
       </c>
       <c r="B354" s="2">
-        <v>71.12</v>
+        <v>77</v>
       </c>
       <c r="C354" s="2">
-        <v>41431008202</v>
+        <v>44906400000</v>
       </c>
       <c r="D354" s="3">
-        <v>139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6872,13 +6872,13 @@
         <v>357</v>
       </c>
       <c r="B355" s="2">
-        <v>86.76000000000001</v>
+        <v>92.26000000000001</v>
       </c>
       <c r="C355" s="2">
-        <v>17172768589</v>
+        <v>18266808070</v>
       </c>
       <c r="D355" s="3">
-        <v>114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6886,13 +6886,13 @@
         <v>358</v>
       </c>
       <c r="B356" s="2">
-        <v>103.79</v>
+        <v>125.54</v>
       </c>
       <c r="C356" s="2">
-        <v>285310614380</v>
+        <v>345048447560</v>
       </c>
       <c r="D356" s="3">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6900,13 +6900,13 @@
         <v>359</v>
       </c>
       <c r="B357" s="2">
-        <v>952.42</v>
+        <v>1113.18</v>
       </c>
       <c r="C357" s="2">
-        <v>56347238714</v>
+        <v>65718345690</v>
       </c>
       <c r="D357" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6914,13 +6914,13 @@
         <v>360</v>
       </c>
       <c r="B358" s="2">
-        <v>88.685</v>
+        <v>98.5</v>
       </c>
       <c r="C358" s="2">
-        <v>36295118718</v>
+        <v>39937280661</v>
       </c>
       <c r="D358" s="3">
-        <v>111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6928,13 +6928,13 @@
         <v>361</v>
       </c>
       <c r="B359" s="2">
-        <v>60.69</v>
+        <v>62.65</v>
       </c>
       <c r="C359" s="2">
-        <v>53429706098</v>
+        <v>55100639853</v>
       </c>
       <c r="D359" s="3">
-        <v>163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6942,13 +6942,13 @@
         <v>362</v>
       </c>
       <c r="B360" s="2">
-        <v>206.75</v>
+        <v>189.7</v>
       </c>
       <c r="C360" s="2">
-        <v>12452173114</v>
+        <v>10917507599</v>
       </c>
       <c r="D360" s="3">
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6956,13 +6956,13 @@
         <v>363</v>
       </c>
       <c r="B361" s="2">
-        <v>117.48</v>
+        <v>120.28</v>
       </c>
       <c r="C361" s="2">
-        <v>42271868118</v>
+        <v>43279369231</v>
       </c>
       <c r="D361" s="3">
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6976,7 +6976,7 @@
         <v>8371850392</v>
       </c>
       <c r="D362" s="3">
-        <v>510</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6984,13 +6984,13 @@
         <v>365</v>
       </c>
       <c r="B363" s="2">
-        <v>97.34</v>
+        <v>118.33</v>
       </c>
       <c r="C363" s="2">
-        <v>50916202460</v>
+        <v>61991155499</v>
       </c>
       <c r="D363" s="3">
-        <v>101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6998,13 +6998,13 @@
         <v>366</v>
       </c>
       <c r="B364" s="2">
-        <v>20.12</v>
+        <v>17.1</v>
       </c>
       <c r="C364" s="2">
-        <v>11007136002</v>
+        <v>9356658009</v>
       </c>
       <c r="D364" s="3">
-        <v>492</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -7012,13 +7012,13 @@
         <v>367</v>
       </c>
       <c r="B365" s="2">
-        <v>61.62</v>
+        <v>63.78</v>
       </c>
       <c r="C365" s="2">
-        <v>30706127289</v>
+        <v>31799853093</v>
       </c>
       <c r="D365" s="3">
-        <v>160</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -7026,13 +7026,13 @@
         <v>368</v>
       </c>
       <c r="B366" s="2">
-        <v>172.35</v>
+        <v>164.66</v>
       </c>
       <c r="C366" s="2">
-        <v>236957803678</v>
+        <v>226313523763</v>
       </c>
       <c r="D366" s="3">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -7040,13 +7040,13 @@
         <v>369</v>
       </c>
       <c r="B367" s="2">
-        <v>29.995</v>
+        <v>27.94</v>
       </c>
       <c r="C367" s="2">
-        <v>169364166694</v>
+        <v>158211403671</v>
       </c>
       <c r="D367" s="3">
-        <v>330</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -7054,13 +7054,13 @@
         <v>370</v>
       </c>
       <c r="B368" s="2">
-        <v>79.255</v>
+        <v>82.55</v>
       </c>
       <c r="C368" s="2">
-        <v>18895352016</v>
+        <v>19470943602</v>
       </c>
       <c r="D368" s="3">
-        <v>124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -7068,13 +7068,13 @@
         <v>371</v>
       </c>
       <c r="B369" s="2">
-        <v>148.38</v>
+        <v>161.38</v>
       </c>
       <c r="C369" s="2">
-        <v>349714775988</v>
+        <v>379730537695</v>
       </c>
       <c r="D369" s="3">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -7082,13 +7082,13 @@
         <v>372</v>
       </c>
       <c r="B370" s="2">
-        <v>160.89</v>
+        <v>204.88</v>
       </c>
       <c r="C370" s="2">
-        <v>94127231527</v>
+        <v>119993598824</v>
       </c>
       <c r="D370" s="3">
-        <v>61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -7096,13 +7096,13 @@
         <v>373</v>
       </c>
       <c r="B371" s="2">
-        <v>460.655</v>
+        <v>535.42</v>
       </c>
       <c r="C371" s="2">
-        <v>59183030705</v>
+        <v>68753739449</v>
       </c>
       <c r="D371" s="3">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -7110,13 +7110,13 @@
         <v>374</v>
       </c>
       <c r="B372" s="2">
-        <v>101.99</v>
+        <v>110.9</v>
       </c>
       <c r="C372" s="2">
-        <v>21988532010</v>
+        <v>23523271260</v>
       </c>
       <c r="D372" s="3">
-        <v>97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7124,13 +7124,13 @@
         <v>375</v>
       </c>
       <c r="B373" s="2">
-        <v>164.435</v>
+        <v>182.91</v>
       </c>
       <c r="C373" s="2">
-        <v>14737371277</v>
+        <v>16393147606</v>
       </c>
       <c r="D373" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7144,7 +7144,7 @@
         <v>14455821070</v>
       </c>
       <c r="D374" s="3">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7152,13 +7152,13 @@
         <v>377</v>
       </c>
       <c r="B375" s="2">
-        <v>133.39</v>
+        <v>129.02</v>
       </c>
       <c r="C375" s="2">
-        <v>123248491690</v>
+        <v>119328146620</v>
       </c>
       <c r="D375" s="3">
-        <v>74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7166,13 +7166,13 @@
         <v>378</v>
       </c>
       <c r="B376" s="2">
-        <v>95.34</v>
+        <v>94.27</v>
       </c>
       <c r="C376" s="2">
-        <v>148006387182</v>
+        <v>146350083399</v>
       </c>
       <c r="D376" s="3">
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7180,13 +7180,13 @@
         <v>379</v>
       </c>
       <c r="B377" s="2">
-        <v>156.2</v>
+        <v>148.78</v>
       </c>
       <c r="C377" s="2">
-        <v>62220881382</v>
+        <v>59185890903</v>
       </c>
       <c r="D377" s="3">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7194,13 +7194,13 @@
         <v>380</v>
       </c>
       <c r="B378" s="2">
-        <v>71.22</v>
+        <v>80.63</v>
       </c>
       <c r="C378" s="2">
-        <v>11772591860</v>
+        <v>13330921783</v>
       </c>
       <c r="D378" s="3">
-        <v>139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7208,13 +7208,13 @@
         <v>381</v>
       </c>
       <c r="B379" s="2">
-        <v>72.55</v>
+        <v>70.98</v>
       </c>
       <c r="C379" s="2">
-        <v>8227050002</v>
+        <v>8051074510</v>
       </c>
       <c r="D379" s="3">
-        <v>136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7222,13 +7222,13 @@
         <v>382</v>
       </c>
       <c r="B380" s="2">
-        <v>147.94</v>
+        <v>137.86</v>
       </c>
       <c r="C380" s="2">
-        <v>34884252000</v>
+        <v>32446887588</v>
       </c>
       <c r="D380" s="3">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7236,13 +7236,13 @@
         <v>383</v>
       </c>
       <c r="B381" s="2">
-        <v>27.38</v>
+        <v>26.64</v>
       </c>
       <c r="C381" s="2">
-        <v>20182465771</v>
+        <v>19649754789</v>
       </c>
       <c r="D381" s="3">
-        <v>361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7250,13 +7250,13 @@
         <v>384</v>
       </c>
       <c r="B382" s="2">
-        <v>33.78</v>
+        <v>30.37</v>
       </c>
       <c r="C382" s="2">
-        <v>4577409198</v>
+        <v>4115619067</v>
       </c>
       <c r="D382" s="3">
-        <v>293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7264,13 +7264,13 @@
         <v>385</v>
       </c>
       <c r="B383" s="2">
-        <v>104.57</v>
+        <v>112.84</v>
       </c>
       <c r="C383" s="2">
-        <v>37749770000</v>
+        <v>40509560000</v>
       </c>
       <c r="D383" s="3">
-        <v>94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7278,13 +7278,13 @@
         <v>386</v>
       </c>
       <c r="B384" s="2">
-        <v>310.83</v>
+        <v>277.04</v>
       </c>
       <c r="C384" s="2">
-        <v>54653072917</v>
+        <v>48711795261</v>
       </c>
       <c r="D384" s="3">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7292,13 +7292,13 @@
         <v>387</v>
       </c>
       <c r="B385" s="2">
-        <v>134.7</v>
+        <v>159.03</v>
       </c>
       <c r="C385" s="2">
-        <v>59262015952</v>
+        <v>68036918944</v>
       </c>
       <c r="D385" s="3">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7306,13 +7306,13 @@
         <v>388</v>
       </c>
       <c r="B386" s="2">
-        <v>122.59</v>
+        <v>130.92</v>
       </c>
       <c r="C386" s="2">
-        <v>7310961983</v>
+        <v>7807742416</v>
       </c>
       <c r="D386" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7320,13 +7320,13 @@
         <v>389</v>
       </c>
       <c r="B387" s="2">
-        <v>210.68</v>
+        <v>242.75</v>
       </c>
       <c r="C387" s="2">
-        <v>30608620625</v>
+        <v>35380563924</v>
       </c>
       <c r="D387" s="3">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7334,13 +7334,13 @@
         <v>390</v>
       </c>
       <c r="B388" s="2">
-        <v>230.7</v>
+        <v>249.96</v>
       </c>
       <c r="C388" s="2">
-        <v>53824359539</v>
+        <v>58396435325</v>
       </c>
       <c r="D388" s="3">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7348,13 +7348,13 @@
         <v>391</v>
       </c>
       <c r="B389" s="2">
-        <v>61.885</v>
+        <v>62.85</v>
       </c>
       <c r="C389" s="2">
-        <v>68073500000</v>
+        <v>67358976152</v>
       </c>
       <c r="D389" s="3">
-        <v>159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7362,13 +7362,13 @@
         <v>392</v>
       </c>
       <c r="B390" s="2">
-        <v>141.46</v>
+        <v>167.2</v>
       </c>
       <c r="C390" s="2">
-        <v>157444980000</v>
+        <v>186595200000</v>
       </c>
       <c r="D390" s="3">
-        <v>69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7376,13 +7376,13 @@
         <v>393</v>
       </c>
       <c r="B391" s="2">
-        <v>110.38</v>
+        <v>111.85</v>
       </c>
       <c r="C391" s="2">
-        <v>10745024437</v>
+        <v>10798945027</v>
       </c>
       <c r="D391" s="3">
-        <v>89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7390,13 +7390,13 @@
         <v>394</v>
       </c>
       <c r="B392" s="2">
-        <v>121.98</v>
+        <v>128.92</v>
       </c>
       <c r="C392" s="2">
-        <v>31255557986</v>
+        <v>33091032056</v>
       </c>
       <c r="D392" s="3">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7410,7 +7410,7 @@
         <v>13796600687</v>
       </c>
       <c r="D393" s="3">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7418,13 +7418,13 @@
         <v>396</v>
       </c>
       <c r="B394" s="2">
-        <v>67.64</v>
+        <v>59.08</v>
       </c>
       <c r="C394" s="2">
-        <v>12485057555</v>
+        <v>10904900970</v>
       </c>
       <c r="D394" s="3">
-        <v>146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7432,13 +7432,13 @@
         <v>397</v>
       </c>
       <c r="B395" s="2">
-        <v>902.345</v>
+        <v>964.47</v>
       </c>
       <c r="C395" s="2">
-        <v>96667171325</v>
+        <v>104108508563</v>
       </c>
       <c r="D395" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7446,13 +7446,13 @@
         <v>398</v>
       </c>
       <c r="B396" s="2">
-        <v>19.6</v>
+        <v>19.05</v>
       </c>
       <c r="C396" s="2">
-        <v>18229272785</v>
+        <v>17504360114</v>
       </c>
       <c r="D396" s="3">
-        <v>505</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7460,13 +7460,13 @@
         <v>399</v>
       </c>
       <c r="B397" s="2">
-        <v>86.95</v>
+        <v>78.84999999999999</v>
       </c>
       <c r="C397" s="2">
-        <v>9207566337</v>
+        <v>8289649763</v>
       </c>
       <c r="D397" s="3">
-        <v>113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7474,13 +7474,13 @@
         <v>400</v>
       </c>
       <c r="B398" s="2">
-        <v>111.76</v>
+        <v>120.76</v>
       </c>
       <c r="C398" s="2">
-        <v>23313891386</v>
+        <v>25242174667</v>
       </c>
       <c r="D398" s="3">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7488,13 +7488,13 @@
         <v>401</v>
       </c>
       <c r="B399" s="2">
-        <v>146.48</v>
+        <v>181.6</v>
       </c>
       <c r="C399" s="2">
-        <v>9928414400</v>
+        <v>12308848000</v>
       </c>
       <c r="D399" s="3">
-        <v>67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7502,13 +7502,13 @@
         <v>402</v>
       </c>
       <c r="B400" s="2">
-        <v>171.73</v>
+        <v>190.05</v>
       </c>
       <c r="C400" s="2">
-        <v>25260093704</v>
+        <v>27954243164</v>
       </c>
       <c r="D400" s="3">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7516,13 +7516,13 @@
         <v>403</v>
       </c>
       <c r="B401" s="2">
-        <v>306.575</v>
+        <v>280.88</v>
       </c>
       <c r="C401" s="2">
-        <v>35155731804</v>
+        <v>32186607139</v>
       </c>
       <c r="D401" s="3">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7530,13 +7530,13 @@
         <v>404</v>
       </c>
       <c r="B402" s="2">
-        <v>43.41</v>
+        <v>46.35</v>
       </c>
       <c r="C402" s="2">
-        <v>21012083416</v>
+        <v>22458211572</v>
       </c>
       <c r="D402" s="3">
-        <v>228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7544,13 +7544,13 @@
         <v>405</v>
       </c>
       <c r="B403" s="2">
-        <v>533.875</v>
+        <v>547.35</v>
       </c>
       <c r="C403" s="2">
-        <v>57029657713</v>
+        <v>58578673968</v>
       </c>
       <c r="D403" s="3">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -7558,13 +7558,13 @@
         <v>406</v>
       </c>
       <c r="B404" s="2">
-        <v>137.785</v>
+        <v>145.12</v>
       </c>
       <c r="C404" s="2">
-        <v>46387561461</v>
+        <v>48857008522</v>
       </c>
       <c r="D404" s="3">
-        <v>71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7572,13 +7572,13 @@
         <v>407</v>
       </c>
       <c r="B405" s="2">
-        <v>164.46</v>
+        <v>186.31</v>
       </c>
       <c r="C405" s="2">
-        <v>51745119283</v>
+        <v>58615096973</v>
       </c>
       <c r="D405" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7586,13 +7586,13 @@
         <v>408</v>
       </c>
       <c r="B406" s="2">
-        <v>85.89</v>
+        <v>92.93000000000001</v>
       </c>
       <c r="C406" s="2">
-        <v>123501341283</v>
+        <v>123563888104</v>
       </c>
       <c r="D406" s="3">
-        <v>115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7600,13 +7600,13 @@
         <v>409</v>
       </c>
       <c r="B407" s="2">
-        <v>254.55</v>
+        <v>215.48</v>
       </c>
       <c r="C407" s="2">
-        <v>27463399500</v>
+        <v>23295257935</v>
       </c>
       <c r="D407" s="3">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7614,13 +7614,13 @@
         <v>410</v>
       </c>
       <c r="B408" s="2">
-        <v>94.18000000000001</v>
+        <v>90.12</v>
       </c>
       <c r="C408" s="2">
-        <v>107054406000</v>
+        <v>102033864000</v>
       </c>
       <c r="D408" s="3">
-        <v>105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7628,13 +7628,13 @@
         <v>411</v>
       </c>
       <c r="B409" s="2">
-        <v>68.13</v>
+        <v>67.04000000000001</v>
       </c>
       <c r="C409" s="2">
-        <v>120704671428</v>
+        <v>118893785654</v>
       </c>
       <c r="D409" s="3">
-        <v>145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7642,13 +7642,13 @@
         <v>412</v>
       </c>
       <c r="B410" s="2">
-        <v>37.32</v>
+        <v>36.12</v>
       </c>
       <c r="C410" s="2">
-        <v>5390337114</v>
+        <v>5219113130</v>
       </c>
       <c r="D410" s="3">
-        <v>265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7656,13 +7656,13 @@
         <v>413</v>
       </c>
       <c r="B411" s="2">
-        <v>303.89</v>
+        <v>334.66</v>
       </c>
       <c r="C411" s="2">
-        <v>77785535090</v>
+        <v>85159096933</v>
       </c>
       <c r="D411" s="3">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7676,7 +7676,7 @@
         <v>6285481871</v>
       </c>
       <c r="D412" s="3">
-        <v>93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7684,13 +7684,13 @@
         <v>415</v>
       </c>
       <c r="B413" s="2">
-        <v>128.66</v>
+        <v>122.07</v>
       </c>
       <c r="C413" s="2">
-        <v>13656462337</v>
+        <v>12960849389</v>
       </c>
       <c r="D413" s="3">
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7698,13 +7698,13 @@
         <v>416</v>
       </c>
       <c r="B414" s="2">
-        <v>52.67</v>
+        <v>52.87</v>
       </c>
       <c r="C414" s="2">
-        <v>74971565161</v>
+        <v>75466365349</v>
       </c>
       <c r="D414" s="3">
-        <v>187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7712,13 +7712,13 @@
         <v>417</v>
       </c>
       <c r="B415" s="2">
-        <v>46.38</v>
+        <v>50.52</v>
       </c>
       <c r="C415" s="2">
-        <v>2987646500</v>
+        <v>3273646137</v>
       </c>
       <c r="D415" s="3">
-        <v>213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7726,13 +7726,13 @@
         <v>418</v>
       </c>
       <c r="B416" s="2">
-        <v>289.33</v>
+        <v>289.2</v>
       </c>
       <c r="C416" s="2">
-        <v>15270837400</v>
+        <v>15280858050</v>
       </c>
       <c r="D416" s="3">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7740,13 +7740,13 @@
         <v>419</v>
       </c>
       <c r="B417" s="2">
-        <v>500.65</v>
+        <v>550.03</v>
       </c>
       <c r="C417" s="2">
-        <v>76092230471</v>
+        <v>83903605811</v>
       </c>
       <c r="D417" s="3">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7754,13 +7754,13 @@
         <v>420</v>
       </c>
       <c r="B418" s="2">
-        <v>70.345</v>
+        <v>69.09</v>
       </c>
       <c r="C418" s="2">
-        <v>76719618105</v>
+        <v>75378234157</v>
       </c>
       <c r="D418" s="3">
-        <v>140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7768,13 +7768,13 @@
         <v>421</v>
       </c>
       <c r="B419" s="2">
-        <v>143.5</v>
+        <v>150.77</v>
       </c>
       <c r="C419" s="2">
-        <v>46815355766</v>
+        <v>49134587578</v>
       </c>
       <c r="D419" s="3">
-        <v>68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7782,13 +7782,13 @@
         <v>422</v>
       </c>
       <c r="B420" s="2">
-        <v>437.2</v>
+        <v>422.81</v>
       </c>
       <c r="C420" s="2">
-        <v>145587600000</v>
+        <v>140795730000</v>
       </c>
       <c r="D420" s="3">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7796,13 +7796,13 @@
         <v>423</v>
       </c>
       <c r="B421" s="2">
-        <v>75.425</v>
+        <v>70.01000000000001</v>
       </c>
       <c r="C421" s="2">
-        <v>23732745140</v>
+        <v>44256815619</v>
       </c>
       <c r="D421" s="3">
-        <v>131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7810,13 +7810,13 @@
         <v>424</v>
       </c>
       <c r="B422" s="2">
-        <v>217.685</v>
+        <v>230.05</v>
       </c>
       <c r="C422" s="2">
-        <v>21507313047</v>
+        <v>22732168752</v>
       </c>
       <c r="D422" s="3">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7824,13 +7824,13 @@
         <v>425</v>
       </c>
       <c r="B423" s="2">
-        <v>77.89</v>
+        <v>72.5</v>
       </c>
       <c r="C423" s="2">
-        <v>24035569672</v>
+        <v>21890908898</v>
       </c>
       <c r="D423" s="3">
-        <v>127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7838,13 +7838,13 @@
         <v>426</v>
       </c>
       <c r="B424" s="2">
-        <v>83.355</v>
+        <v>86.01000000000001</v>
       </c>
       <c r="C424" s="2">
-        <v>17401189800</v>
+        <v>17955447600</v>
       </c>
       <c r="D424" s="3">
-        <v>118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7852,13 +7852,13 @@
         <v>427</v>
       </c>
       <c r="B425" s="2">
-        <v>244.13</v>
+        <v>267.64</v>
       </c>
       <c r="C425" s="2">
-        <v>44837570313</v>
+        <v>48923630637</v>
       </c>
       <c r="D425" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7866,13 +7866,13 @@
         <v>428</v>
       </c>
       <c r="B426" s="2">
-        <v>98.48</v>
+        <v>88.15000000000001</v>
       </c>
       <c r="C426" s="2">
-        <v>15098107854</v>
+        <v>13557808055</v>
       </c>
       <c r="D426" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7880,13 +7880,13 @@
         <v>429</v>
       </c>
       <c r="B427" s="2">
-        <v>110.41</v>
+        <v>104.07</v>
       </c>
       <c r="C427" s="2">
-        <v>17660616865</v>
+        <v>16674708476</v>
       </c>
       <c r="D427" s="3">
-        <v>89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7894,13 +7894,13 @@
         <v>430</v>
       </c>
       <c r="B428" s="2">
-        <v>38.23</v>
+        <v>41.78</v>
       </c>
       <c r="C428" s="2">
-        <v>15819740683</v>
+        <v>16997925692</v>
       </c>
       <c r="D428" s="3">
-        <v>258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7908,13 +7908,13 @@
         <v>431</v>
       </c>
       <c r="B429" s="2">
-        <v>297.44</v>
+        <v>352.23</v>
       </c>
       <c r="C429" s="2">
-        <v>112995864696</v>
+        <v>133825561740</v>
       </c>
       <c r="D429" s="3">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7922,13 +7922,13 @@
         <v>432</v>
       </c>
       <c r="B430" s="2">
-        <v>74.39</v>
+        <v>80.92</v>
       </c>
       <c r="C430" s="2">
-        <v>37520230848</v>
+        <v>40284383208</v>
       </c>
       <c r="D430" s="3">
-        <v>133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7936,13 +7936,13 @@
         <v>433</v>
       </c>
       <c r="B431" s="2">
-        <v>17.195</v>
+        <v>17.05</v>
       </c>
       <c r="C431" s="2">
-        <v>122600350000</v>
+        <v>121566500000</v>
       </c>
       <c r="D431" s="3">
-        <v>575</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7950,13 +7950,13 @@
         <v>434</v>
       </c>
       <c r="B432" s="2">
-        <v>62.23</v>
+        <v>67.47</v>
       </c>
       <c r="C432" s="2">
-        <v>12676731602</v>
+        <v>13519998687</v>
       </c>
       <c r="D432" s="3">
-        <v>159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7964,13 +7964,13 @@
         <v>435</v>
       </c>
       <c r="B433" s="2">
-        <v>1002.11</v>
+        <v>1172.2</v>
       </c>
       <c r="C433" s="2">
-        <v>55430816759</v>
+        <v>65181659144</v>
       </c>
       <c r="D433" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7978,13 +7978,13 @@
         <v>436</v>
       </c>
       <c r="B434" s="2">
-        <v>443.07</v>
+        <v>415.12</v>
       </c>
       <c r="C434" s="2">
-        <v>20906123700</v>
+        <v>19666875809</v>
       </c>
       <c r="D434" s="3">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -7992,13 +7992,13 @@
         <v>437</v>
       </c>
       <c r="B435" s="2">
-        <v>139.13</v>
+        <v>139.16</v>
       </c>
       <c r="C435" s="2">
-        <v>43238720531</v>
+        <v>43250928000</v>
       </c>
       <c r="D435" s="3">
-        <v>71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -8006,13 +8006,13 @@
         <v>438</v>
       </c>
       <c r="B436" s="2">
-        <v>37.45</v>
+        <v>34.86</v>
       </c>
       <c r="C436" s="2">
-        <v>49945869484</v>
+        <v>46523839192</v>
       </c>
       <c r="D436" s="3">
-        <v>264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -8020,13 +8020,13 @@
         <v>439</v>
       </c>
       <c r="B437" s="2">
-        <v>250.78</v>
+        <v>215.39</v>
       </c>
       <c r="C437" s="2">
-        <v>11786660000</v>
+        <v>10135495658</v>
       </c>
       <c r="D437" s="3">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -8034,13 +8034,13 @@
         <v>440</v>
       </c>
       <c r="B438" s="2">
-        <v>144.08</v>
+        <v>164.22</v>
       </c>
       <c r="C438" s="2">
-        <v>66516232144</v>
+        <v>75818765629</v>
       </c>
       <c r="D438" s="3">
-        <v>68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -8054,7 +8054,7 @@
         <v>15960711882</v>
       </c>
       <c r="D439" s="3">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -8062,13 +8062,13 @@
         <v>442</v>
       </c>
       <c r="B440" s="2">
-        <v>93.48999999999999</v>
+        <v>97.55</v>
       </c>
       <c r="C440" s="2">
-        <v>106548385528</v>
+        <v>110581367465</v>
       </c>
       <c r="D440" s="3">
-        <v>105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -8076,13 +8076,13 @@
         <v>443</v>
       </c>
       <c r="B441" s="2">
-        <v>544.05</v>
+        <v>584.15</v>
       </c>
       <c r="C441" s="2">
-        <v>210205861240</v>
+        <v>222743561352</v>
       </c>
       <c r="D441" s="3">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -8090,13 +8090,13 @@
         <v>444</v>
       </c>
       <c r="B442" s="2">
-        <v>162.2</v>
+        <v>161.81</v>
       </c>
       <c r="C442" s="2">
-        <v>187580254732</v>
+        <v>192047042311</v>
       </c>
       <c r="D442" s="3">
-        <v>61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -8104,13 +8104,13 @@
         <v>445</v>
       </c>
       <c r="B443" s="2">
-        <v>38.255</v>
+        <v>46.84</v>
       </c>
       <c r="C443" s="2">
-        <v>8767526612</v>
+        <v>10743510653</v>
       </c>
       <c r="D443" s="3">
-        <v>258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8118,13 +8118,13 @@
         <v>446</v>
       </c>
       <c r="B444" s="2">
-        <v>107.78</v>
+        <v>114.86</v>
       </c>
       <c r="C444" s="2">
-        <v>24050483924</v>
+        <v>25689196502</v>
       </c>
       <c r="D444" s="3">
-        <v>91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8132,13 +8132,13 @@
         <v>447</v>
       </c>
       <c r="B445" s="2">
-        <v>192.44</v>
+        <v>220.93</v>
       </c>
       <c r="C445" s="2">
-        <v>43953189388</v>
+        <v>50620772715</v>
       </c>
       <c r="D445" s="3">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8146,13 +8146,13 @@
         <v>448</v>
       </c>
       <c r="B446" s="2">
-        <v>219.05</v>
+        <v>257.15</v>
       </c>
       <c r="C446" s="2">
-        <v>23682416386</v>
+        <v>27750735689</v>
       </c>
       <c r="D446" s="3">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8160,13 +8160,13 @@
         <v>449</v>
       </c>
       <c r="B447" s="2">
-        <v>55.79</v>
+        <v>56.15</v>
       </c>
       <c r="C447" s="2">
-        <v>20063757700</v>
+        <v>20193224500</v>
       </c>
       <c r="D447" s="3">
-        <v>177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8174,13 +8174,13 @@
         <v>450</v>
       </c>
       <c r="B448" s="2">
-        <v>241.28</v>
+        <v>291.41</v>
       </c>
       <c r="C448" s="2">
-        <v>54904949582</v>
+        <v>66171116796</v>
       </c>
       <c r="D448" s="3">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8188,13 +8188,13 @@
         <v>451</v>
       </c>
       <c r="B449" s="2">
-        <v>159.56</v>
+        <v>143.91</v>
       </c>
       <c r="C449" s="2">
-        <v>27135989447</v>
+        <v>24549090407</v>
       </c>
       <c r="D449" s="3">
-        <v>62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8208,7 +8208,7 @@
         <v>41093718362</v>
       </c>
       <c r="D450" s="3">
-        <v>184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8216,13 +8216,13 @@
         <v>453</v>
       </c>
       <c r="B451" s="2">
-        <v>169.61</v>
+        <v>172.52</v>
       </c>
       <c r="C451" s="2">
-        <v>154040496214</v>
+        <v>157002817990</v>
       </c>
       <c r="D451" s="3">
-        <v>58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8230,13 +8230,13 @@
         <v>454</v>
       </c>
       <c r="B452" s="2">
-        <v>81.45999999999999</v>
+        <v>92.91</v>
       </c>
       <c r="C452" s="2">
-        <v>15966604527</v>
+        <v>17874671153</v>
       </c>
       <c r="D452" s="3">
-        <v>121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8244,13 +8244,13 @@
         <v>455</v>
       </c>
       <c r="B453" s="2">
-        <v>402.555</v>
+        <v>416.31</v>
       </c>
       <c r="C453" s="2">
-        <v>16957301695</v>
+        <v>17599978178</v>
       </c>
       <c r="D453" s="3">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8258,13 +8258,13 @@
         <v>456</v>
       </c>
       <c r="B454" s="2">
-        <v>8.335000000000001</v>
+        <v>6.95</v>
       </c>
       <c r="C454" s="2">
-        <v>3447782585</v>
+        <v>2823536628</v>
       </c>
       <c r="D454" s="3">
-        <v>1187</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8272,13 +8272,13 @@
         <v>457</v>
       </c>
       <c r="B455" s="2">
-        <v>8.789999999999999</v>
+        <v>7.15</v>
       </c>
       <c r="C455" s="2">
-        <v>3899143091</v>
+        <v>3171657918</v>
       </c>
       <c r="D455" s="3">
-        <v>1126</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8286,13 +8286,13 @@
         <v>458</v>
       </c>
       <c r="B456" s="2">
-        <v>41.6</v>
+        <v>43.62</v>
       </c>
       <c r="C456" s="2">
-        <v>13645503664</v>
+        <v>14308488929</v>
       </c>
       <c r="D456" s="3">
-        <v>238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8300,13 +8300,13 @@
         <v>459</v>
       </c>
       <c r="B457" s="2">
-        <v>38.67</v>
+        <v>37.17</v>
       </c>
       <c r="C457" s="2">
-        <v>12719650942</v>
+        <v>12237259983</v>
       </c>
       <c r="D457" s="3">
-        <v>256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8314,13 +8314,13 @@
         <v>460</v>
       </c>
       <c r="B458" s="2">
-        <v>156.875</v>
+        <v>173.9</v>
       </c>
       <c r="C458" s="2">
-        <v>11447208283</v>
+        <v>12689526823</v>
       </c>
       <c r="D458" s="3">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8328,13 +8328,13 @@
         <v>461</v>
       </c>
       <c r="B459" s="2">
-        <v>490.04</v>
+        <v>535.98</v>
       </c>
       <c r="C459" s="2">
-        <v>23797085791</v>
+        <v>26028001882</v>
       </c>
       <c r="D459" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8342,13 +8342,13 @@
         <v>462</v>
       </c>
       <c r="B460" s="2">
-        <v>535.29</v>
+        <v>490.82</v>
       </c>
       <c r="C460" s="2">
-        <v>495103260090</v>
+        <v>452503699379</v>
       </c>
       <c r="D460" s="3">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8356,13 +8356,13 @@
         <v>463</v>
       </c>
       <c r="B461" s="2">
-        <v>45.61</v>
+        <v>52.11</v>
       </c>
       <c r="C461" s="2">
-        <v>8896031914</v>
+        <v>9980003293</v>
       </c>
       <c r="D461" s="3">
-        <v>217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8370,13 +8370,13 @@
         <v>464</v>
       </c>
       <c r="B462" s="2">
-        <v>244.625</v>
+        <v>244.13</v>
       </c>
       <c r="C462" s="2">
-        <v>149122787214</v>
+        <v>148865082145</v>
       </c>
       <c r="D462" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8384,13 +8384,13 @@
         <v>465</v>
       </c>
       <c r="B463" s="2">
-        <v>160.18</v>
+        <v>153.37</v>
       </c>
       <c r="C463" s="2">
-        <v>138542590548</v>
+        <v>132652497892</v>
       </c>
       <c r="D463" s="3">
-        <v>61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8398,13 +8398,13 @@
         <v>466</v>
       </c>
       <c r="B464" s="2">
-        <v>569.965</v>
+        <v>675.58</v>
       </c>
       <c r="C464" s="2">
-        <v>38633054149</v>
+        <v>45393319369</v>
       </c>
       <c r="D464" s="3">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -8412,13 +8412,13 @@
         <v>467</v>
       </c>
       <c r="B465" s="2">
-        <v>43.76</v>
+        <v>42.08</v>
       </c>
       <c r="C465" s="2">
-        <v>68134862887</v>
+        <v>65566254776</v>
       </c>
       <c r="D465" s="3">
-        <v>226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8426,13 +8426,13 @@
         <v>468</v>
       </c>
       <c r="B466" s="2">
-        <v>258.995</v>
+        <v>283.04</v>
       </c>
       <c r="C466" s="2">
-        <v>489607922334</v>
+        <v>535062940742</v>
       </c>
       <c r="D466" s="3">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8446,7 +8446,7 @@
         <v>16261898618</v>
       </c>
       <c r="D467" s="3">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -8454,13 +8454,13 @@
         <v>470</v>
       </c>
       <c r="B468" s="2">
-        <v>18.835</v>
+        <v>14.78</v>
       </c>
       <c r="C468" s="2">
-        <v>7324618914</v>
+        <v>5746699830</v>
       </c>
       <c r="D468" s="3">
-        <v>525</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -8474,7 +8474,7 @@
         <v>19317433987</v>
       </c>
       <c r="D469" s="3">
-        <v>334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -8482,13 +8482,13 @@
         <v>472</v>
       </c>
       <c r="B470" s="2">
-        <v>130.93</v>
+        <v>163.7</v>
       </c>
       <c r="C470" s="2">
-        <v>44575503696</v>
+        <v>54427288340</v>
       </c>
       <c r="D470" s="3">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -8496,13 +8496,13 @@
         <v>473</v>
       </c>
       <c r="B471" s="2">
-        <v>224.895</v>
+        <v>266.86</v>
       </c>
       <c r="C471" s="2">
-        <v>29882560369</v>
+        <v>35286097220</v>
       </c>
       <c r="D471" s="3">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -8510,13 +8510,13 @@
         <v>474</v>
       </c>
       <c r="B472" s="2">
-        <v>29.21</v>
+        <v>25.47</v>
       </c>
       <c r="C472" s="2">
-        <v>5559298493</v>
+        <v>4849251205</v>
       </c>
       <c r="D472" s="3">
-        <v>338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -8524,13 +8524,13 @@
         <v>475</v>
       </c>
       <c r="B473" s="2">
-        <v>237.355</v>
+        <v>234.52</v>
       </c>
       <c r="C473" s="2">
-        <v>34413284474</v>
+        <v>33627795596</v>
       </c>
       <c r="D473" s="3">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -8538,13 +8538,13 @@
         <v>476</v>
       </c>
       <c r="B474" s="2">
-        <v>202.1</v>
+        <v>190.25</v>
       </c>
       <c r="C474" s="2">
-        <v>20634410000</v>
+        <v>19196225000</v>
       </c>
       <c r="D474" s="3">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -8552,13 +8552,13 @@
         <v>477</v>
       </c>
       <c r="B475" s="2">
-        <v>410.855</v>
+        <v>407.69</v>
       </c>
       <c r="C475" s="2">
-        <v>105870424562</v>
+        <v>105309513505</v>
       </c>
       <c r="D475" s="3">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -8566,13 +8566,13 @@
         <v>478</v>
       </c>
       <c r="B476" s="2">
-        <v>50.39</v>
+        <v>42.48</v>
       </c>
       <c r="C476" s="2">
-        <v>20275965841</v>
+        <v>17096567876</v>
       </c>
       <c r="D476" s="3">
-        <v>196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -8580,13 +8580,13 @@
         <v>479</v>
       </c>
       <c r="B477" s="2">
-        <v>38.695</v>
+        <v>39.49</v>
       </c>
       <c r="C477" s="2">
-        <v>162677713695</v>
+        <v>166026718774</v>
       </c>
       <c r="D477" s="3">
-        <v>255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -8594,13 +8594,13 @@
         <v>480</v>
       </c>
       <c r="B478" s="2">
-        <v>126.385</v>
+        <v>139.82</v>
       </c>
       <c r="C478" s="2">
-        <v>22648192000</v>
+        <v>24748140000</v>
       </c>
       <c r="D478" s="3">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -8608,13 +8608,13 @@
         <v>481</v>
       </c>
       <c r="B479" s="2">
-        <v>330.85</v>
+        <v>352.9</v>
       </c>
       <c r="C479" s="2">
-        <v>19562160340</v>
+        <v>20892606715</v>
       </c>
       <c r="D479" s="3">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -8622,13 +8622,13 @@
         <v>482</v>
       </c>
       <c r="B480" s="2">
-        <v>26.695</v>
+        <v>20.82</v>
       </c>
       <c r="C480" s="2">
-        <v>23062200060</v>
+        <v>17954658472</v>
       </c>
       <c r="D480" s="3">
-        <v>370</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -8636,13 +8636,13 @@
         <v>483</v>
       </c>
       <c r="B481" s="2">
-        <v>51.305</v>
+        <v>59.79</v>
       </c>
       <c r="C481" s="2">
-        <v>16515079500</v>
+        <v>19483154154</v>
       </c>
       <c r="D481" s="3">
-        <v>192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -8650,13 +8650,13 @@
         <v>484</v>
       </c>
       <c r="B482" s="2">
-        <v>85.65000000000001</v>
+        <v>80.78</v>
       </c>
       <c r="C482" s="2">
-        <v>27016967580</v>
+        <v>25480801414</v>
       </c>
       <c r="D482" s="3">
-        <v>115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -8664,13 +8664,13 @@
         <v>485</v>
       </c>
       <c r="B483" s="2">
-        <v>90.04000000000001</v>
+        <v>91.34999999999999</v>
       </c>
       <c r="C483" s="2">
-        <v>49834359655</v>
+        <v>51967010690</v>
       </c>
       <c r="D483" s="3">
-        <v>109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -8678,13 +8678,13 @@
         <v>486</v>
       </c>
       <c r="B484" s="2">
-        <v>49.585</v>
+        <v>57.51</v>
       </c>
       <c r="C484" s="2">
-        <v>181420771765</v>
+        <v>210416629711</v>
       </c>
       <c r="D484" s="3">
-        <v>199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -8692,13 +8692,13 @@
         <v>487</v>
       </c>
       <c r="B485" s="2">
-        <v>123.36</v>
+        <v>105.12</v>
       </c>
       <c r="C485" s="2">
-        <v>6766667437</v>
+        <v>5744151631</v>
       </c>
       <c r="D485" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -8712,7 +8712,7 @@
         <v>28853787821</v>
       </c>
       <c r="D486" s="3">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -8720,13 +8720,13 @@
         <v>489</v>
       </c>
       <c r="B487" s="2">
-        <v>179.27</v>
+        <v>210.53</v>
       </c>
       <c r="C487" s="2">
-        <v>72205550798</v>
+        <v>84548443151</v>
       </c>
       <c r="D487" s="3">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -8734,13 +8734,13 @@
         <v>490</v>
       </c>
       <c r="B488" s="2">
-        <v>35.24</v>
+        <v>37</v>
       </c>
       <c r="C488" s="2">
-        <v>42869413201</v>
+        <v>45019756364</v>
       </c>
       <c r="D488" s="3">
-        <v>280</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -8748,13 +8748,13 @@
         <v>491</v>
       </c>
       <c r="B489" s="2">
-        <v>159.2</v>
+        <v>60.68</v>
       </c>
       <c r="C489" s="2">
-        <v>428603605518</v>
+        <v>488474000000</v>
       </c>
       <c r="D489" s="3">
-        <v>62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -8762,13 +8762,13 @@
         <v>492</v>
       </c>
       <c r="B490" s="2">
-        <v>71.63</v>
+        <v>85.51000000000001</v>
       </c>
       <c r="C490" s="2">
-        <v>18471373795</v>
+        <v>21937476686</v>
       </c>
       <c r="D490" s="3">
-        <v>138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -8776,13 +8776,13 @@
         <v>493</v>
       </c>
       <c r="B491" s="2">
-        <v>41.67</v>
+        <v>48.6</v>
       </c>
       <c r="C491" s="2">
-        <v>10688677276</v>
+        <v>12465900000</v>
       </c>
       <c r="D491" s="3">
-        <v>237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -8790,13 +8790,13 @@
         <v>494</v>
       </c>
       <c r="B492" s="2">
-        <v>350.01</v>
+        <v>387.62</v>
       </c>
       <c r="C492" s="2">
-        <v>25897124397</v>
+        <v>28375864357</v>
       </c>
       <c r="D492" s="3">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -8804,13 +8804,13 @@
         <v>495</v>
       </c>
       <c r="B493" s="2">
-        <v>12.065</v>
+        <v>13.48</v>
       </c>
       <c r="C493" s="2">
-        <v>4395991432</v>
+        <v>4612814589</v>
       </c>
       <c r="D493" s="3">
-        <v>820</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -8818,13 +8818,13 @@
         <v>496</v>
       </c>
       <c r="B494" s="2">
-        <v>34.94</v>
+        <v>34.33</v>
       </c>
       <c r="C494" s="2">
-        <v>25506234940</v>
+        <v>25044455930</v>
       </c>
       <c r="D494" s="3">
-        <v>283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -8832,13 +8832,13 @@
         <v>497</v>
       </c>
       <c r="B495" s="2">
-        <v>95.16</v>
+        <v>99.09</v>
       </c>
       <c r="C495" s="2">
-        <v>10747940694</v>
+        <v>11105835081</v>
       </c>
       <c r="D495" s="3">
-        <v>104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -8846,13 +8846,13 @@
         <v>498</v>
       </c>
       <c r="B496" s="2">
-        <v>62.81</v>
+        <v>51.99</v>
       </c>
       <c r="C496" s="2">
-        <v>34659582996</v>
+        <v>28862548482</v>
       </c>
       <c r="D496" s="3">
-        <v>157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -8866,7 +8866,7 @@
         <v>48414620999</v>
       </c>
       <c r="D497" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -8874,13 +8874,13 @@
         <v>500</v>
       </c>
       <c r="B498" s="2">
-        <v>102.62</v>
+        <v>111.27</v>
       </c>
       <c r="C498" s="2">
-        <v>406674633461</v>
+        <v>441502036040</v>
       </c>
       <c r="D498" s="3">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -8888,13 +8888,13 @@
         <v>501</v>
       </c>
       <c r="B499" s="2">
-        <v>35.885</v>
+        <v>32.84</v>
       </c>
       <c r="C499" s="2">
-        <v>7602610131</v>
+        <v>6809809984</v>
       </c>
       <c r="D499" s="3">
-        <v>275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -8902,13 +8902,13 @@
         <v>502</v>
       </c>
       <c r="B500" s="2">
-        <v>18.05</v>
+        <v>16.44</v>
       </c>
       <c r="C500" s="2">
-        <v>2218453282</v>
+        <v>2041562043</v>
       </c>
       <c r="D500" s="3">
-        <v>548</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -8916,13 +8916,13 @@
         <v>503</v>
       </c>
       <c r="B501" s="2">
-        <v>113.99</v>
+        <v>127.27</v>
       </c>
       <c r="C501" s="2">
-        <v>27480456142</v>
+        <v>30770120463</v>
       </c>
       <c r="D501" s="3">
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -8930,13 +8930,13 @@
         <v>504</v>
       </c>
       <c r="B502" s="2">
-        <v>129.48</v>
+        <v>136.84</v>
       </c>
       <c r="C502" s="2">
-        <v>36294308196</v>
+        <v>38498056555</v>
       </c>
       <c r="D502" s="3">
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -8944,13 +8944,13 @@
         <v>505</v>
       </c>
       <c r="B503" s="2">
-        <v>121.845</v>
+        <v>125.17</v>
       </c>
       <c r="C503" s="2">
-        <v>25463254732</v>
+        <v>25670367034</v>
       </c>
       <c r="D503" s="3">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -8958,13 +8958,13 @@
         <v>506</v>
       </c>
       <c r="B504" s="2">
-        <v>266.92</v>
+        <v>285.86</v>
       </c>
       <c r="C504" s="2">
-        <v>13708905500</v>
+        <v>14681769600</v>
       </c>
       <c r="D504" s="3">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -8972,13 +8972,13 @@
         <v>507</v>
       </c>
       <c r="B505" s="2">
-        <v>44.405</v>
+        <v>39.79</v>
       </c>
       <c r="C505" s="2">
-        <v>6578547420</v>
+        <v>5872965006</v>
       </c>
       <c r="D505" s="3">
-        <v>222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -8986,13 +8986,13 @@
         <v>508</v>
       </c>
       <c r="B506" s="2">
-        <v>196.75</v>
+        <v>172.57</v>
       </c>
       <c r="C506" s="2">
-        <v>90330618704</v>
+        <v>79014128036</v>
       </c>
       <c r="D506" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
